--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-496409.897735836</v>
+        <v>-497158.2992467565</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4354305.171692325</v>
+        <v>4354305.171692324</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>46.59903157869928</v>
+        <v>248.8963500865721</v>
       </c>
       <c r="D11" t="n">
         <v>239.8776541311001</v>
       </c>
       <c r="E11" t="n">
-        <v>261.6197917010057</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>280.7916077889828</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>282.1305160374087</v>
       </c>
       <c r="H11" t="n">
-        <v>194.1880049094285</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>18.95690544140076</v>
+        <v>18.9569054414007</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.5946441204903</v>
+        <v>42.59464412049024</v>
       </c>
       <c r="T11" t="n">
-        <v>90.29547644886766</v>
+        <v>90.2954764488676</v>
       </c>
       <c r="U11" t="n">
         <v>123.0708631572776</v>
       </c>
       <c r="V11" t="n">
-        <v>204.3914103690695</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>229.6915098470264</v>
       </c>
       <c r="X11" t="n">
-        <v>248.9917680797731</v>
+        <v>248.991768079773</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>226.8714703761762</v>
       </c>
     </row>
     <row r="12">
@@ -1449,22 +1449,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>30.86856503750627</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>8.232179645741468</v>
       </c>
       <c r="E12" t="n">
-        <v>18.38992632983713</v>
+        <v>16.3396588497489</v>
       </c>
       <c r="F12" t="n">
-        <v>4.128789075675883</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>216.2889227376699</v>
       </c>
       <c r="V12" t="n">
-        <v>96.89359533220085</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>109.6846390850745</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>61.37804209296843</v>
+        <v>157.2006105543359</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.5017440035875</v>
+        <v>52.50174400358745</v>
       </c>
       <c r="C13" t="n">
-        <v>38.70173884898799</v>
+        <v>38.70173884898793</v>
       </c>
       <c r="D13" t="n">
-        <v>22.32310324656638</v>
+        <v>22.32310324656632</v>
       </c>
       <c r="E13" t="n">
-        <v>21.27085310234582</v>
+        <v>21.27085310234577</v>
       </c>
       <c r="F13" t="n">
-        <v>21.73777743053213</v>
+        <v>21.73777743053208</v>
       </c>
       <c r="G13" t="n">
-        <v>37.74587087490177</v>
+        <v>37.74587087490171</v>
       </c>
       <c r="H13" t="n">
-        <v>26.19044893016419</v>
+        <v>26.19044893016413</v>
       </c>
       <c r="I13" t="n">
-        <v>5.52527488445525</v>
+        <v>5.525274884455193</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.820769996597152</v>
+        <v>6.820769996597095</v>
       </c>
       <c r="S13" t="n">
-        <v>77.70832139488067</v>
+        <v>77.70832139488061</v>
       </c>
       <c r="T13" t="n">
-        <v>100.4899439296226</v>
+        <v>100.4899439296225</v>
       </c>
       <c r="U13" t="n">
-        <v>155.0857237976438</v>
+        <v>155.0857237976437</v>
       </c>
       <c r="V13" t="n">
-        <v>128.9098804032131</v>
+        <v>128.909880403213</v>
       </c>
       <c r="W13" t="n">
-        <v>154.0767664738264</v>
+        <v>154.0767664738263</v>
       </c>
       <c r="X13" t="n">
-        <v>99.72186846962947</v>
+        <v>99.72186846962941</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.59673622569716</v>
+        <v>90.5967362256971</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>260.8850331288904</v>
+        <v>260.8850331288903</v>
       </c>
       <c r="C14" t="n">
-        <v>248.8963500865722</v>
+        <v>248.8963500865721</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>261.6197917010057</v>
+        <v>261.6197917010056</v>
       </c>
       <c r="F14" t="n">
-        <v>280.7916077889829</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>194.1880049094285</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04361830480718254</v>
+        <v>18.95690544140065</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.59464412049033</v>
+        <v>42.59464412049019</v>
       </c>
       <c r="T14" t="n">
-        <v>90.2954764488677</v>
+        <v>90.29547644886755</v>
       </c>
       <c r="U14" t="n">
-        <v>123.0708631572777</v>
+        <v>123.0708631572775</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>204.3914103690694</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>229.6915098470263</v>
       </c>
       <c r="X14" t="n">
-        <v>248.9917680797731</v>
+        <v>248.991768079773</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>21.98340534572128</v>
       </c>
     </row>
     <row r="15">
@@ -1686,16 +1686,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>30.86856503750636</v>
+        <v>160.0420370464967</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>8.232179645741411</v>
       </c>
       <c r="E15" t="n">
-        <v>16.33965884974899</v>
+        <v>16.33965884974884</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>4.128789075675769</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>39.44188278383304</v>
       </c>
       <c r="S15" t="n">
-        <v>16.14651652925647</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T15" t="n">
         <v>185.5164475248238</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2443237527119</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>109.6846390850746</v>
+        <v>109.6846390850744</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.50174400358753</v>
+        <v>52.50174400358739</v>
       </c>
       <c r="C16" t="n">
-        <v>38.70173884898801</v>
+        <v>38.70173884898787</v>
       </c>
       <c r="D16" t="n">
-        <v>22.3231032465664</v>
+        <v>22.32310324656626</v>
       </c>
       <c r="E16" t="n">
-        <v>21.27085310234585</v>
+        <v>21.27085310234571</v>
       </c>
       <c r="F16" t="n">
-        <v>21.73777743053216</v>
+        <v>21.73777743053202</v>
       </c>
       <c r="G16" t="n">
-        <v>37.7458708749018</v>
+        <v>37.74587087490166</v>
       </c>
       <c r="H16" t="n">
-        <v>26.19044893016422</v>
+        <v>26.19044893016408</v>
       </c>
       <c r="I16" t="n">
-        <v>5.525274884455278</v>
+        <v>5.525274884455136</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.82076999659718</v>
+        <v>6.820769996597038</v>
       </c>
       <c r="S16" t="n">
-        <v>77.7083213948807</v>
+        <v>77.70832139488056</v>
       </c>
       <c r="T16" t="n">
-        <v>100.4899439296226</v>
+        <v>100.4899439296225</v>
       </c>
       <c r="U16" t="n">
-        <v>155.0857237976438</v>
+        <v>155.0857237976437</v>
       </c>
       <c r="V16" t="n">
-        <v>128.9098804032131</v>
+        <v>128.909880403213</v>
       </c>
       <c r="W16" t="n">
-        <v>154.0767664738264</v>
+        <v>154.0767664738262</v>
       </c>
       <c r="X16" t="n">
-        <v>99.7218684696295</v>
+        <v>99.72186846962936</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.59673622569719</v>
+        <v>90.59673622569704</v>
       </c>
     </row>
     <row r="17">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>84.49473646442598</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>127.1232045289026</v>
       </c>
       <c r="H18" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.001146263041448</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T18" t="n">
         <v>185.5164475248238</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>100.6549996834715</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.60739031761009</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>10.19446748075492</v>
+        <v>229.7080149235711</v>
       </c>
       <c r="U19" t="n">
         <v>64.79024734877613</v>
       </c>
       <c r="V19" t="n">
-        <v>38.61440395434545</v>
+        <v>179.8767939554271</v>
       </c>
       <c r="W19" t="n">
         <v>63.78129002495871</v>
@@ -2068,7 +2068,7 @@
         <v>9.426392020761824</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0.3012597768295109</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.5895566800228</v>
+        <v>170.5895566800227</v>
       </c>
       <c r="C20" t="n">
-        <v>158.6008736377046</v>
+        <v>158.6008736377044</v>
       </c>
       <c r="D20" t="n">
-        <v>149.5821776822321</v>
+        <v>149.5821776822324</v>
       </c>
       <c r="E20" t="n">
-        <v>171.3243152521381</v>
+        <v>171.3243152521379</v>
       </c>
       <c r="F20" t="n">
-        <v>190.4961313401153</v>
+        <v>190.4961313401151</v>
       </c>
       <c r="G20" t="n">
-        <v>191.8350395885411</v>
+        <v>191.835039588541</v>
       </c>
       <c r="H20" t="n">
-        <v>103.8925284605609</v>
+        <v>103.8925284605608</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>32.77538670841005</v>
+        <v>32.77538670840992</v>
       </c>
       <c r="V20" t="n">
-        <v>114.095933920202</v>
+        <v>114.0959339202018</v>
       </c>
       <c r="W20" t="n">
-        <v>139.3960333981589</v>
+        <v>139.3960333981587</v>
       </c>
       <c r="X20" t="n">
-        <v>158.6962916309055</v>
+        <v>158.6962916309053</v>
       </c>
       <c r="Y20" t="n">
-        <v>170.0928894271042</v>
+        <v>170.0928894271041</v>
       </c>
     </row>
     <row r="21">
@@ -2166,16 +2166,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.44188278383304</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T21" t="n">
-        <v>185.5164475248238</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>216.2889227376699</v>
       </c>
       <c r="V21" t="n">
-        <v>6.598118883333257</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>176.1581849428792</v>
       </c>
       <c r="X21" t="n">
-        <v>189.4568000899502</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.60739031761009</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.8270765669731</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>206.9263923888292</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.7080149235711</v>
+        <v>10.19446748075483</v>
       </c>
       <c r="U22" t="n">
-        <v>64.79024734877619</v>
+        <v>284.3037947915923</v>
       </c>
       <c r="V22" t="n">
-        <v>114.0628262465236</v>
+        <v>38.61440395434536</v>
       </c>
       <c r="W22" t="n">
-        <v>63.78129002495876</v>
+        <v>63.78129002495862</v>
       </c>
       <c r="X22" t="n">
-        <v>9.426392020761881</v>
+        <v>128.7221261435367</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3012597768295677</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.5895566800228</v>
+        <v>170.5895566800227</v>
       </c>
       <c r="C23" t="n">
-        <v>158.6008736377046</v>
+        <v>158.6008736377044</v>
       </c>
       <c r="D23" t="n">
-        <v>149.5821776822326</v>
+        <v>149.5821776822324</v>
       </c>
       <c r="E23" t="n">
-        <v>171.3243152521381</v>
+        <v>171.3243152521379</v>
       </c>
       <c r="F23" t="n">
-        <v>190.4961313401153</v>
+        <v>190.4961313401151</v>
       </c>
       <c r="G23" t="n">
-        <v>191.8350395885412</v>
+        <v>191.835039588541</v>
       </c>
       <c r="H23" t="n">
-        <v>103.8925284605609</v>
+        <v>103.8925284605608</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>32.77538670841006</v>
+        <v>32.77538670840992</v>
       </c>
       <c r="V23" t="n">
-        <v>114.095933920202</v>
+        <v>114.0959339202018</v>
       </c>
       <c r="W23" t="n">
-        <v>139.3960333981589</v>
+        <v>139.3960333981587</v>
       </c>
       <c r="X23" t="n">
-        <v>158.6962916309055</v>
+        <v>158.6962916309053</v>
       </c>
       <c r="Y23" t="n">
-        <v>170.0928894271042</v>
+        <v>170.0928894271041</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>99.02364265218331</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.7494185219329</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>185.5164475248238</v>
       </c>
       <c r="U24" t="n">
-        <v>74.64363163192722</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2460,10 +2460,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.60739031761009</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T25" t="n">
-        <v>10.19446748075498</v>
+        <v>164.0440125358239</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3037947915923</v>
+        <v>64.79024734877605</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>38.61440395434536</v>
       </c>
       <c r="W25" t="n">
-        <v>63.78129002495876</v>
+        <v>63.78129002495862</v>
       </c>
       <c r="X25" t="n">
-        <v>72.28765925895306</v>
+        <v>9.426392020761739</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3012597768295677</v>
+        <v>0.3012597768294256</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>222.0346248910547</v>
       </c>
       <c r="I29" t="n">
-        <v>46.80352542302693</v>
+        <v>46.80352542302695</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.44126410211648</v>
+        <v>70.44126410211651</v>
       </c>
       <c r="T29" t="n">
         <v>118.1420964304939</v>
@@ -2889,7 +2889,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I30" t="n">
-        <v>56.74941852193287</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.441882783833</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S30" t="n">
         <v>145.364587523205</v>
@@ -2968,7 +2968,7 @@
         <v>54.03706891179039</v>
       </c>
       <c r="I31" t="n">
-        <v>33.37189486608144</v>
+        <v>33.37189486608145</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66738997822333</v>
+        <v>34.66738997822335</v>
       </c>
       <c r="S31" t="n">
         <v>105.5549413765069</v>
@@ -3038,7 +3038,7 @@
         <v>289.4664116826319</v>
       </c>
       <c r="F32" t="n">
-        <v>308.6382277706091</v>
+        <v>308.638227770609</v>
       </c>
       <c r="G32" t="n">
         <v>309.9771360190349</v>
@@ -3047,7 +3047,7 @@
         <v>222.0346248910547</v>
       </c>
       <c r="I32" t="n">
-        <v>46.80352542302694</v>
+        <v>46.80352542302693</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.44126410211649</v>
+        <v>70.44126410211648</v>
       </c>
       <c r="T32" t="n">
         <v>118.1420964304939</v>
       </c>
       <c r="U32" t="n">
-        <v>150.9174831389039</v>
+        <v>150.9174831389038</v>
       </c>
       <c r="V32" t="n">
-        <v>232.2380303506958</v>
+        <v>232.2380303506957</v>
       </c>
       <c r="W32" t="n">
-        <v>257.5381298286527</v>
+        <v>257.5381298286526</v>
       </c>
       <c r="X32" t="n">
         <v>276.8383880613993</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.2349858575981</v>
+        <v>288.234985857598</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I33" t="n">
-        <v>56.74941852193287</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.441882783833</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S33" t="n">
         <v>145.364587523205</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.34836398521372</v>
+        <v>80.34836398521368</v>
       </c>
       <c r="C34" t="n">
-        <v>66.54835883061421</v>
+        <v>66.54835883061416</v>
       </c>
       <c r="D34" t="n">
-        <v>50.16972322819259</v>
+        <v>50.16972322819255</v>
       </c>
       <c r="E34" t="n">
-        <v>49.11747308397204</v>
+        <v>49.117473083972</v>
       </c>
       <c r="F34" t="n">
-        <v>49.58439741215835</v>
+        <v>49.58439741215831</v>
       </c>
       <c r="G34" t="n">
-        <v>65.59249085652797</v>
+        <v>65.59249085652793</v>
       </c>
       <c r="H34" t="n">
-        <v>54.03706891179041</v>
+        <v>54.03706891179037</v>
       </c>
       <c r="I34" t="n">
-        <v>33.37189486608145</v>
+        <v>33.37189486608143</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66738997822335</v>
+        <v>34.66738997822334</v>
       </c>
       <c r="S34" t="n">
-        <v>105.5549413765069</v>
+        <v>105.5549413765068</v>
       </c>
       <c r="T34" t="n">
-        <v>128.3365639112488</v>
+        <v>128.3365639112487</v>
       </c>
       <c r="U34" t="n">
         <v>182.93234377927</v>
@@ -3247,13 +3247,13 @@
         <v>156.7565003848393</v>
       </c>
       <c r="W34" t="n">
-        <v>181.9233864554526</v>
+        <v>181.9233864554525</v>
       </c>
       <c r="X34" t="n">
-        <v>127.5684884512557</v>
+        <v>127.5684884512556</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.4433562073234</v>
+        <v>118.4433562073233</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.762763267334464</v>
+        <v>5.76276326733449</v>
       </c>
       <c r="T35" t="n">
-        <v>53.46359559571184</v>
+        <v>53.46359559571185</v>
       </c>
       <c r="U35" t="n">
         <v>86.23898230412183</v>
@@ -3363,7 +3363,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I36" t="n">
-        <v>56.74941852193287</v>
+        <v>56.74941852193481</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.44188278383347</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S36" t="n">
         <v>145.364587523205</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.913990021745958</v>
+        <v>0.9139900217459584</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.1611518772974</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>40.87644054172485</v>
+        <v>53.03759241902173</v>
       </c>
       <c r="T37" t="n">
         <v>63.65806307646675</v>
@@ -3481,7 +3481,7 @@
         <v>118.253842944488</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>92.07799955005729</v>
       </c>
       <c r="W37" t="n">
         <v>117.2448856206705</v>
@@ -3490,7 +3490,7 @@
         <v>62.88998761647366</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.76485537254135</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.0531522757345</v>
+        <v>224.0531522757346</v>
       </c>
       <c r="C38" t="n">
-        <v>212.0644692334163</v>
+        <v>212.0644692334164</v>
       </c>
       <c r="D38" t="n">
-        <v>203.0457732779442</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E38" t="n">
-        <v>224.7879108478498</v>
+        <v>224.7879108478499</v>
       </c>
       <c r="F38" t="n">
         <v>243.959726935827</v>
       </c>
       <c r="G38" t="n">
-        <v>245.2986351842528</v>
+        <v>245.2986351842529</v>
       </c>
       <c r="H38" t="n">
-        <v>157.3561240562726</v>
+        <v>157.3561240562727</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.762763267334378</v>
+        <v>5.76276326733449</v>
       </c>
       <c r="T38" t="n">
-        <v>53.46359559571175</v>
+        <v>53.46359559571185</v>
       </c>
       <c r="U38" t="n">
-        <v>86.23898230412175</v>
+        <v>86.23898230412183</v>
       </c>
       <c r="V38" t="n">
         <v>167.5595295159137</v>
@@ -3566,10 +3566,10 @@
         <v>192.8596289938706</v>
       </c>
       <c r="X38" t="n">
-        <v>212.1598872266172</v>
+        <v>212.1598872266173</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.5564850228159</v>
+        <v>223.556485022816</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I39" t="n">
-        <v>56.74941852193287</v>
+        <v>56.74941852193304</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.441882783833</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S39" t="n">
         <v>145.364587523205</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.66986315043161</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>1.869857995832092</v>
+        <v>1.869857995832177</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9139900217458727</v>
+        <v>0.9139900217459584</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.60739031761005</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>40.87644054172476</v>
+        <v>40.87644054172486</v>
       </c>
       <c r="T40" t="n">
-        <v>201.2617764832592</v>
+        <v>63.65806307646675</v>
       </c>
       <c r="U40" t="n">
-        <v>118.2538429444879</v>
+        <v>118.253842944488</v>
       </c>
       <c r="V40" t="n">
-        <v>92.0779995500572</v>
+        <v>92.07799955005729</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2448856206705</v>
+        <v>129.4060374979674</v>
       </c>
       <c r="X40" t="n">
-        <v>62.88998761647358</v>
+        <v>62.88998761647366</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.76485537254126</v>
+        <v>53.76485537254135</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>203.0457732779442</v>
       </c>
       <c r="E41" t="n">
-        <v>224.7879108478498</v>
+        <v>224.7879108478497</v>
       </c>
       <c r="F41" t="n">
         <v>243.9597269358269</v>
@@ -3791,10 +3791,10 @@
         <v>5.76276326733435</v>
       </c>
       <c r="T41" t="n">
-        <v>53.46359559571174</v>
+        <v>53.46359559571172</v>
       </c>
       <c r="U41" t="n">
-        <v>86.23898230412172</v>
+        <v>86.23898230412169</v>
       </c>
       <c r="V41" t="n">
         <v>167.5595295159136</v>
@@ -3834,10 +3834,10 @@
         <v>127.1232045289026</v>
       </c>
       <c r="H42" t="n">
-        <v>95.8671674463282</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I42" t="n">
-        <v>56.74941852193287</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.441882783833</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S42" t="n">
         <v>145.364587523205</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.66986315043158</v>
+        <v>15.66986315043155</v>
       </c>
       <c r="C43" t="n">
-        <v>1.869857995832064</v>
+        <v>14.03100987313033</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9139900217458443</v>
+        <v>0.9139900217458163</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>40.87644054172473</v>
+        <v>40.87644054172472</v>
       </c>
       <c r="T43" t="n">
-        <v>63.65806307646664</v>
+        <v>229.7080149235711</v>
       </c>
       <c r="U43" t="n">
-        <v>118.2538429444879</v>
+        <v>118.2538429444878</v>
       </c>
       <c r="V43" t="n">
-        <v>92.07799955005717</v>
+        <v>92.07799955005714</v>
       </c>
       <c r="W43" t="n">
         <v>117.2448856206704</v>
       </c>
       <c r="X43" t="n">
-        <v>62.88998761647355</v>
+        <v>62.88998761647352</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.02011067246339</v>
+        <v>53.76485537254121</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>224.0531522757345</v>
       </c>
       <c r="C44" t="n">
-        <v>212.0644692334162</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D44" t="n">
         <v>203.0457732779442</v>
@@ -3986,7 +3986,7 @@
         <v>224.7879108478498</v>
       </c>
       <c r="F44" t="n">
-        <v>243.9597269358269</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G44" t="n">
         <v>245.2986351842528</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.76276326733435</v>
+        <v>5.762763267334405</v>
       </c>
       <c r="T44" t="n">
-        <v>53.46359559571172</v>
+        <v>53.46359559571177</v>
       </c>
       <c r="U44" t="n">
-        <v>86.23898230412172</v>
+        <v>86.23898230412175</v>
       </c>
       <c r="V44" t="n">
-        <v>167.5595295159136</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W44" t="n">
-        <v>192.8596289938705</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X44" t="n">
-        <v>212.1598872266171</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y44" t="n">
         <v>223.5564850228159</v>
@@ -4074,7 +4074,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I45" t="n">
-        <v>56.74941852193287</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.441882783833</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S45" t="n">
         <v>145.364587523205</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.66986315043158</v>
+        <v>15.66986315043161</v>
       </c>
       <c r="C46" t="n">
-        <v>1.869857995832064</v>
+        <v>1.869857995832092</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9139900217458443</v>
+        <v>0.9139900217458732</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>67.54637002561267</v>
+        <v>53.0375924190224</v>
       </c>
       <c r="T46" t="n">
-        <v>63.65806307646664</v>
+        <v>63.65806307646667</v>
       </c>
       <c r="U46" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V46" t="n">
-        <v>92.07799955005717</v>
+        <v>92.0779995500572</v>
       </c>
       <c r="W46" t="n">
-        <v>117.2448856206704</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X46" t="n">
-        <v>62.88998761647355</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.76485537254123</v>
+        <v>53.76485537254126</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1088.662006590524</v>
+        <v>833.9432491621045</v>
       </c>
       <c r="C11" t="n">
-        <v>1041.592277723151</v>
+        <v>582.5327945292033</v>
       </c>
       <c r="D11" t="n">
-        <v>799.2916169846665</v>
+        <v>340.2321337907184</v>
       </c>
       <c r="E11" t="n">
-        <v>535.0292011250648</v>
+        <v>340.2321337907184</v>
       </c>
       <c r="F11" t="n">
-        <v>251.4013144695265</v>
+        <v>340.2321337907184</v>
       </c>
       <c r="G11" t="n">
-        <v>251.4013144695265</v>
+        <v>55.25181456101273</v>
       </c>
       <c r="H11" t="n">
-        <v>55.25181456101284</v>
+        <v>55.25181456101273</v>
       </c>
       <c r="I11" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626454</v>
       </c>
       <c r="J11" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626454</v>
       </c>
       <c r="K11" t="n">
-        <v>36.1034252262646</v>
+        <v>351.0925257100922</v>
       </c>
       <c r="L11" t="n">
-        <v>36.71898932032104</v>
+        <v>791.834365000984</v>
       </c>
       <c r="M11" t="n">
-        <v>483.4988764953454</v>
+        <v>796.2707368219207</v>
       </c>
       <c r="N11" t="n">
-        <v>930.2787636703697</v>
+        <v>1243.050623996944</v>
       </c>
       <c r="O11" t="n">
-        <v>1334.424833309986</v>
+        <v>1647.196693636561</v>
       </c>
       <c r="P11" t="n">
-        <v>1647.196693636563</v>
+        <v>1647.196693636561</v>
       </c>
       <c r="Q11" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313227</v>
       </c>
       <c r="R11" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313227</v>
       </c>
       <c r="S11" t="n">
-        <v>1762.146368262229</v>
+        <v>1762.146368262227</v>
       </c>
       <c r="T11" t="n">
-        <v>1670.938816293676</v>
+        <v>1670.938816293674</v>
       </c>
       <c r="U11" t="n">
-        <v>1546.624813104507</v>
+        <v>1546.624813104504</v>
       </c>
       <c r="V11" t="n">
-        <v>1340.168843034739</v>
+        <v>1546.624813104504</v>
       </c>
       <c r="W11" t="n">
-        <v>1340.168843034739</v>
+        <v>1314.613186996397</v>
       </c>
       <c r="X11" t="n">
-        <v>1088.662006590524</v>
+        <v>1063.106350552182</v>
       </c>
       <c r="Y11" t="n">
-        <v>1088.662006590524</v>
+        <v>833.9432491621045</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>584.6347121473636</v>
+        <v>226.7976308854777</v>
       </c>
       <c r="C12" t="n">
-        <v>422.9310393883184</v>
+        <v>195.6172621607239</v>
       </c>
       <c r="D12" t="n">
-        <v>284.0924023785304</v>
+        <v>187.3019291852275</v>
       </c>
       <c r="E12" t="n">
-        <v>265.5167192170788</v>
+        <v>170.7972232763902</v>
       </c>
       <c r="F12" t="n">
-        <v>261.3462252012446</v>
+        <v>36.10342522626454</v>
       </c>
       <c r="G12" t="n">
-        <v>132.9389478993228</v>
+        <v>36.10342522626454</v>
       </c>
       <c r="H12" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626454</v>
       </c>
       <c r="I12" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626454</v>
       </c>
       <c r="J12" t="n">
-        <v>36.1034252262646</v>
+        <v>126.102135052085</v>
       </c>
       <c r="K12" t="n">
-        <v>36.1034252262646</v>
+        <v>126.102135052085</v>
       </c>
       <c r="L12" t="n">
-        <v>470.2834991604033</v>
+        <v>351.4373334401942</v>
       </c>
       <c r="M12" t="n">
-        <v>470.2834991604033</v>
+        <v>351.4373334401942</v>
       </c>
       <c r="N12" t="n">
-        <v>798.2172206152198</v>
+        <v>798.2172206152178</v>
       </c>
       <c r="O12" t="n">
-        <v>1244.997107790244</v>
+        <v>1244.997107790241</v>
       </c>
       <c r="P12" t="n">
-        <v>1607.211814338501</v>
+        <v>1607.211814338498</v>
       </c>
       <c r="Q12" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313227</v>
       </c>
       <c r="R12" t="n">
-        <v>1765.330975672994</v>
+        <v>1765.330975672992</v>
       </c>
       <c r="S12" t="n">
-        <v>1618.498058982888</v>
+        <v>1618.498058982886</v>
       </c>
       <c r="T12" t="n">
-        <v>1431.107707947713</v>
+        <v>1431.10770794771</v>
       </c>
       <c r="U12" t="n">
-        <v>1212.634048616733</v>
+        <v>1212.63404861673</v>
       </c>
       <c r="V12" t="n">
-        <v>1114.761730099358</v>
+        <v>984.2384260650642</v>
       </c>
       <c r="W12" t="n">
-        <v>1003.96916536696</v>
+        <v>742.9225572983743</v>
       </c>
       <c r="X12" t="n">
-        <v>806.0521772447544</v>
+        <v>545.0055691761688</v>
       </c>
       <c r="Y12" t="n">
-        <v>744.0541549286246</v>
+        <v>386.2170736667386</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.3509679716722</v>
+        <v>211.3509679716718</v>
       </c>
       <c r="C13" t="n">
-        <v>172.2583024676439</v>
+        <v>172.2583024676435</v>
       </c>
       <c r="D13" t="n">
-        <v>149.7097133296981</v>
+        <v>149.7097133296978</v>
       </c>
       <c r="E13" t="n">
-        <v>128.2240031253084</v>
+        <v>128.2240031253081</v>
       </c>
       <c r="F13" t="n">
-        <v>106.2666521853769</v>
+        <v>106.2666521853767</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13950988749636</v>
+        <v>68.13950988749619</v>
       </c>
       <c r="H13" t="n">
-        <v>41.68451096813859</v>
+        <v>41.68451096813848</v>
       </c>
       <c r="I13" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626454</v>
       </c>
       <c r="J13" t="n">
-        <v>123.8279990958397</v>
+        <v>36.10342522626454</v>
       </c>
       <c r="K13" t="n">
-        <v>188.0975858785159</v>
+        <v>100.3730120089408</v>
       </c>
       <c r="L13" t="n">
-        <v>327.9458183200891</v>
+        <v>296.9836559442203</v>
       </c>
       <c r="M13" t="n">
-        <v>487.3136183141071</v>
+        <v>584.2773462222474</v>
       </c>
       <c r="N13" t="n">
-        <v>646.1264656980742</v>
+        <v>743.0901936062145</v>
       </c>
       <c r="O13" t="n">
-        <v>781.8972815398777</v>
+        <v>878.861009448018</v>
       </c>
       <c r="P13" t="n">
-        <v>973.7522215644188</v>
+        <v>973.7522215644178</v>
       </c>
       <c r="Q13" t="n">
         <v>1086.009306047124</v>
       </c>
       <c r="R13" t="n">
-        <v>1079.119639383895</v>
+        <v>1079.119639383894</v>
       </c>
       <c r="S13" t="n">
-        <v>1000.626385449672</v>
+        <v>1000.626385449671</v>
       </c>
       <c r="T13" t="n">
-        <v>899.1213915813664</v>
+        <v>899.1213915813657</v>
       </c>
       <c r="U13" t="n">
-        <v>742.4691453211202</v>
+        <v>742.4691453211195</v>
       </c>
       <c r="V13" t="n">
-        <v>612.2571449138343</v>
+        <v>612.2571449138336</v>
       </c>
       <c r="W13" t="n">
-        <v>456.6240474655249</v>
+        <v>456.6240474655243</v>
       </c>
       <c r="X13" t="n">
-        <v>355.8948873951921</v>
+        <v>355.8948873951915</v>
       </c>
       <c r="Y13" t="n">
-        <v>264.3830326217606</v>
+        <v>264.3830326217601</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1031.597741176564</v>
+        <v>570.9246850535162</v>
       </c>
       <c r="C14" t="n">
-        <v>780.1872865436626</v>
+        <v>319.5142304206151</v>
       </c>
       <c r="D14" t="n">
-        <v>780.1872865436626</v>
+        <v>319.5142304206151</v>
       </c>
       <c r="E14" t="n">
-        <v>515.9248706840609</v>
+        <v>55.25181456101271</v>
       </c>
       <c r="F14" t="n">
-        <v>232.2969840285227</v>
+        <v>55.25181456101271</v>
       </c>
       <c r="G14" t="n">
-        <v>232.2969840285227</v>
+        <v>55.25181456101271</v>
       </c>
       <c r="H14" t="n">
-        <v>36.14748412000922</v>
+        <v>55.25181456101271</v>
       </c>
       <c r="I14" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J14" t="n">
-        <v>158.0430464355079</v>
+        <v>158.0430464355078</v>
       </c>
       <c r="K14" t="n">
-        <v>158.0430464355079</v>
+        <v>473.0321469193354</v>
       </c>
       <c r="L14" t="n">
-        <v>598.7848857263998</v>
+        <v>913.7739862102273</v>
       </c>
       <c r="M14" t="n">
-        <v>930.2787636703697</v>
+        <v>1360.553873385251</v>
       </c>
       <c r="N14" t="n">
-        <v>930.2787636703697</v>
+        <v>1492.399400986651</v>
       </c>
       <c r="O14" t="n">
-        <v>1334.424833309986</v>
+        <v>1492.399400986651</v>
       </c>
       <c r="P14" t="n">
-        <v>1647.196693636563</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q14" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R14" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="S14" t="n">
         <v>1762.146368262229</v>
@@ -5309,19 +5309,19 @@
         <v>1670.938816293676</v>
       </c>
       <c r="U14" t="n">
-        <v>1546.624813104507</v>
+        <v>1546.624813104506</v>
       </c>
       <c r="V14" t="n">
-        <v>1546.624813104507</v>
+        <v>1340.168843034739</v>
       </c>
       <c r="W14" t="n">
-        <v>1546.624813104507</v>
+        <v>1108.157216926632</v>
       </c>
       <c r="X14" t="n">
-        <v>1295.117976660292</v>
+        <v>856.6503804824168</v>
       </c>
       <c r="Y14" t="n">
-        <v>1295.117976660292</v>
+        <v>834.4449205372438</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>454.1564575928277</v>
+        <v>323.5881040787801</v>
       </c>
       <c r="C15" t="n">
-        <v>422.9760888680738</v>
+        <v>161.9294807994905</v>
       </c>
       <c r="D15" t="n">
-        <v>284.1374518582858</v>
+        <v>153.6141478239941</v>
       </c>
       <c r="E15" t="n">
-        <v>267.6327459494485</v>
+        <v>137.1094419151569</v>
       </c>
       <c r="F15" t="n">
         <v>132.9389478993228</v>
@@ -5349,58 +5349,58 @@
         <v>132.9389478993228</v>
       </c>
       <c r="H15" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I15" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J15" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="K15" t="n">
-        <v>36.1034252262646</v>
+        <v>316.4321740980387</v>
       </c>
       <c r="L15" t="n">
-        <v>470.2834991604033</v>
+        <v>750.6122480321774</v>
       </c>
       <c r="M15" t="n">
-        <v>917.0633863354276</v>
+        <v>750.6122480321774</v>
       </c>
       <c r="N15" t="n">
-        <v>1358.391374138205</v>
+        <v>1197.392135207202</v>
       </c>
       <c r="O15" t="n">
-        <v>1805.17126131323</v>
+        <v>1644.172022382226</v>
       </c>
       <c r="P15" t="n">
-        <v>1805.17126131323</v>
+        <v>1644.172022382226</v>
       </c>
       <c r="Q15" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.330975672994</v>
+        <v>1765.330975672993</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.02136301718</v>
+        <v>1618.498058982887</v>
       </c>
       <c r="T15" t="n">
-        <v>1561.631011982004</v>
+        <v>1431.107707947712</v>
       </c>
       <c r="U15" t="n">
-        <v>1343.20240213078</v>
+        <v>1212.634048616732</v>
       </c>
       <c r="V15" t="n">
-        <v>1114.806779579114</v>
+        <v>984.2384260650661</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.014214846715</v>
+        <v>873.4458613326676</v>
       </c>
       <c r="X15" t="n">
-        <v>806.0972267245098</v>
+        <v>675.5288732104622</v>
       </c>
       <c r="Y15" t="n">
-        <v>613.5759003740886</v>
+        <v>483.007546860041</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.3509679716724</v>
+        <v>211.3509679716714</v>
       </c>
       <c r="C16" t="n">
-        <v>172.2583024676441</v>
+        <v>172.2583024676432</v>
       </c>
       <c r="D16" t="n">
-        <v>149.7097133296982</v>
+        <v>149.7097133296975</v>
       </c>
       <c r="E16" t="n">
-        <v>128.2240031253085</v>
+        <v>128.2240031253079</v>
       </c>
       <c r="F16" t="n">
-        <v>106.266652185377</v>
+        <v>106.2666521853766</v>
       </c>
       <c r="G16" t="n">
-        <v>68.13950988749642</v>
+        <v>68.1395098874961</v>
       </c>
       <c r="H16" t="n">
-        <v>41.68451096813862</v>
+        <v>41.68451096813845</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J16" t="n">
-        <v>123.8279990958396</v>
+        <v>123.8279990958397</v>
       </c>
       <c r="K16" t="n">
-        <v>188.0975858785159</v>
+        <v>188.097585878516</v>
       </c>
       <c r="L16" t="n">
-        <v>327.9458183200891</v>
+        <v>327.9458183200892</v>
       </c>
       <c r="M16" t="n">
-        <v>487.3136183141071</v>
+        <v>487.3136183141072</v>
       </c>
       <c r="N16" t="n">
-        <v>646.1264656980742</v>
+        <v>646.1264656980743</v>
       </c>
       <c r="O16" t="n">
-        <v>781.8972815398777</v>
+        <v>878.8610094480171</v>
       </c>
       <c r="P16" t="n">
-        <v>973.7522215644193</v>
+        <v>973.7522215644169</v>
       </c>
       <c r="Q16" t="n">
-        <v>1086.009306047125</v>
+        <v>1086.009306047123</v>
       </c>
       <c r="R16" t="n">
-        <v>1079.119639383895</v>
+        <v>1079.119639383893</v>
       </c>
       <c r="S16" t="n">
-        <v>1000.626385449673</v>
+        <v>1000.626385449671</v>
       </c>
       <c r="T16" t="n">
-        <v>899.1213915813669</v>
+        <v>899.1213915813651</v>
       </c>
       <c r="U16" t="n">
-        <v>742.4691453211205</v>
+        <v>742.4691453211188</v>
       </c>
       <c r="V16" t="n">
-        <v>612.2571449138346</v>
+        <v>612.257144913833</v>
       </c>
       <c r="W16" t="n">
-        <v>456.6240474655252</v>
+        <v>456.6240474655237</v>
       </c>
       <c r="X16" t="n">
-        <v>355.8948873951923</v>
+        <v>355.894887395191</v>
       </c>
       <c r="Y16" t="n">
-        <v>264.3830326217608</v>
+        <v>264.3830326217596</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.589350439691</v>
+        <v>1011.58935043969</v>
       </c>
       <c r="C17" t="n">
-        <v>851.3864477753431</v>
+        <v>851.3864477753425</v>
       </c>
       <c r="D17" t="n">
-        <v>700.2933390054112</v>
+        <v>700.2933390054106</v>
       </c>
       <c r="E17" t="n">
-        <v>527.2384751143627</v>
+        <v>527.2384751143621</v>
       </c>
       <c r="F17" t="n">
-        <v>334.8181404273776</v>
+        <v>334.8181404273771</v>
       </c>
       <c r="G17" t="n">
         <v>141.0453731662251</v>
       </c>
       <c r="H17" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I17" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J17" t="n">
-        <v>158.0430464355079</v>
+        <v>158.0430464355078</v>
       </c>
       <c r="K17" t="n">
-        <v>158.0430464355079</v>
+        <v>473.0321469193354</v>
       </c>
       <c r="L17" t="n">
-        <v>598.7848857263998</v>
+        <v>796.270736821922</v>
       </c>
       <c r="M17" t="n">
-        <v>598.7848857263998</v>
+        <v>1243.050623996946</v>
       </c>
       <c r="N17" t="n">
-        <v>930.2787636703697</v>
+        <v>1243.050623996946</v>
       </c>
       <c r="O17" t="n">
-        <v>1334.424833309986</v>
+        <v>1647.196693636562</v>
       </c>
       <c r="P17" t="n">
-        <v>1647.196693636563</v>
+        <v>1647.196693636562</v>
       </c>
       <c r="Q17" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R17" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="S17" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="T17" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="U17" t="n">
-        <v>1772.064810092614</v>
+        <v>1772.064810092613</v>
       </c>
       <c r="V17" t="n">
-        <v>1656.8163919914</v>
+        <v>1656.816391991398</v>
       </c>
       <c r="W17" t="n">
-        <v>1516.012317851845</v>
+        <v>1516.012317851844</v>
       </c>
       <c r="X17" t="n">
-        <v>1355.713033376183</v>
+        <v>1355.713033376182</v>
       </c>
       <c r="Y17" t="n">
-        <v>1183.902033954866</v>
+        <v>1183.902033954865</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>762.0943509251936</v>
+        <v>465.0530122970196</v>
       </c>
       <c r="C18" t="n">
-        <v>600.3906781661483</v>
+        <v>303.3493395379743</v>
       </c>
       <c r="D18" t="n">
-        <v>600.3906781661483</v>
+        <v>164.5107025281864</v>
       </c>
       <c r="E18" t="n">
-        <v>453.3626682230196</v>
+        <v>164.5107025281864</v>
       </c>
       <c r="F18" t="n">
-        <v>318.6688701728939</v>
+        <v>164.5107025281864</v>
       </c>
       <c r="G18" t="n">
-        <v>190.2615928709722</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H18" t="n">
-        <v>93.42607019791399</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I18" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J18" t="n">
-        <v>36.1034252262646</v>
+        <v>83.70839780930635</v>
       </c>
       <c r="K18" t="n">
-        <v>316.4321740980387</v>
+        <v>364.0371466810805</v>
       </c>
       <c r="L18" t="n">
-        <v>316.4321740980387</v>
+        <v>798.2172206152192</v>
       </c>
       <c r="M18" t="n">
-        <v>351.4373334401955</v>
+        <v>1244.997107790243</v>
       </c>
       <c r="N18" t="n">
-        <v>798.2172206152198</v>
+        <v>1244.997107790243</v>
       </c>
       <c r="O18" t="n">
-        <v>1244.997107790244</v>
+        <v>1244.997107790243</v>
       </c>
       <c r="P18" t="n">
-        <v>1607.211814338501</v>
+        <v>1607.2118143385</v>
       </c>
       <c r="Q18" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R18" t="n">
-        <v>1797.089295390966</v>
+        <v>1765.330975672993</v>
       </c>
       <c r="S18" t="n">
-        <v>1797.089295390966</v>
+        <v>1618.498058982887</v>
       </c>
       <c r="T18" t="n">
-        <v>1609.69894435579</v>
+        <v>1431.107707947712</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.22528502481</v>
+        <v>1212.634048616732</v>
       </c>
       <c r="V18" t="n">
-        <v>1162.829662473144</v>
+        <v>984.2384260650661</v>
       </c>
       <c r="W18" t="n">
-        <v>921.5137937064544</v>
+        <v>742.9225572983761</v>
       </c>
       <c r="X18" t="n">
-        <v>921.5137937064544</v>
+        <v>742.9225572983761</v>
       </c>
       <c r="Y18" t="n">
-        <v>921.5137937064544</v>
+        <v>550.4012309479549</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.79270805564</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="C19" t="n">
-        <v>178.79270805564</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="D19" t="n">
-        <v>178.79270805564</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="E19" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="F19" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="G19" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H19" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I19" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J19" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="K19" t="n">
         <v>100.3730120089408</v>
@@ -5680,7 +5680,7 @@
         <v>240.221244450514</v>
       </c>
       <c r="M19" t="n">
-        <v>399.5890444445321</v>
+        <v>399.589044444532</v>
       </c>
       <c r="N19" t="n">
         <v>558.4018918284992</v>
@@ -5701,22 +5701,22 @@
         <v>773.0769737594569</v>
       </c>
       <c r="T19" t="n">
-        <v>762.7795318597044</v>
+        <v>541.0486758568599</v>
       </c>
       <c r="U19" t="n">
-        <v>697.3348375680114</v>
+        <v>475.6039815651668</v>
       </c>
       <c r="V19" t="n">
-        <v>658.3303891292786</v>
+        <v>293.9102502970586</v>
       </c>
       <c r="W19" t="n">
-        <v>593.9048436495224</v>
+        <v>229.4847048173023</v>
       </c>
       <c r="X19" t="n">
-        <v>584.3832355477427</v>
+        <v>219.9630967155227</v>
       </c>
       <c r="Y19" t="n">
-        <v>362.3480767400198</v>
+        <v>219.6587939106444</v>
       </c>
     </row>
     <row r="20">
@@ -5729,64 +5729,64 @@
         <v>1011.589350439691</v>
       </c>
       <c r="C20" t="n">
-        <v>851.386447775343</v>
+        <v>851.3864477753431</v>
       </c>
       <c r="D20" t="n">
-        <v>700.2933390054116</v>
+        <v>700.2933390054113</v>
       </c>
       <c r="E20" t="n">
         <v>527.2384751143629</v>
       </c>
       <c r="F20" t="n">
-        <v>334.8181404273778</v>
+        <v>334.818140427378</v>
       </c>
       <c r="G20" t="n">
-        <v>141.0453731662251</v>
+        <v>141.045373166225</v>
       </c>
       <c r="H20" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I20" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J20" t="n">
-        <v>158.0430464355079</v>
+        <v>158.0430464355078</v>
       </c>
       <c r="K20" t="n">
-        <v>473.0321469193354</v>
+        <v>158.0430464355078</v>
       </c>
       <c r="L20" t="n">
-        <v>913.7739862102273</v>
+        <v>598.7848857263998</v>
       </c>
       <c r="M20" t="n">
-        <v>1360.553873385252</v>
+        <v>1045.564772901424</v>
       </c>
       <c r="N20" t="n">
-        <v>1401.025191673613</v>
+        <v>1334.424833309985</v>
       </c>
       <c r="O20" t="n">
-        <v>1805.17126131323</v>
+        <v>1334.424833309985</v>
       </c>
       <c r="P20" t="n">
-        <v>1805.17126131323</v>
+        <v>1647.196693636562</v>
       </c>
       <c r="Q20" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R20" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="S20" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="T20" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="U20" t="n">
         <v>1772.064810092613</v>
       </c>
       <c r="V20" t="n">
-        <v>1656.8163919914</v>
+        <v>1656.816391991399</v>
       </c>
       <c r="W20" t="n">
         <v>1516.012317851845</v>
@@ -5795,7 +5795,7 @@
         <v>1355.713033376183</v>
       </c>
       <c r="Y20" t="n">
-        <v>1183.902033954866</v>
+        <v>1183.902033954865</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>568.1750557182817</v>
+        <v>483.6737449382266</v>
       </c>
       <c r="C21" t="n">
-        <v>406.4713829592364</v>
+        <v>321.9700721791813</v>
       </c>
       <c r="D21" t="n">
-        <v>267.6327459494485</v>
+        <v>183.1314351693933</v>
       </c>
       <c r="E21" t="n">
-        <v>267.6327459494485</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="F21" t="n">
-        <v>132.9389478993228</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="G21" t="n">
-        <v>132.9389478993228</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H21" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I21" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J21" t="n">
         <v>126.102135052085</v>
       </c>
       <c r="K21" t="n">
-        <v>126.102135052085</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="L21" t="n">
-        <v>560.2822089862237</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="M21" t="n">
-        <v>1007.062096161248</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="N21" t="n">
-        <v>1358.391374138205</v>
+        <v>853.2107710988832</v>
       </c>
       <c r="O21" t="n">
-        <v>1805.17126131323</v>
+        <v>1299.990658273907</v>
       </c>
       <c r="P21" t="n">
-        <v>1805.17126131323</v>
+        <v>1662.205364822164</v>
       </c>
       <c r="Q21" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.330975672994</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="S21" t="n">
-        <v>1765.330975672994</v>
+        <v>1658.338344623123</v>
       </c>
       <c r="T21" t="n">
-        <v>1577.940624637819</v>
+        <v>1658.338344623123</v>
       </c>
       <c r="U21" t="n">
-        <v>1359.466965306839</v>
+        <v>1439.864685292143</v>
       </c>
       <c r="V21" t="n">
-        <v>1352.802198758018</v>
+        <v>1211.469062740477</v>
       </c>
       <c r="W21" t="n">
-        <v>1111.486329991328</v>
+        <v>1033.531502192114</v>
       </c>
       <c r="X21" t="n">
-        <v>920.1158248499638</v>
+        <v>835.6145140699088</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.5944984995426</v>
+        <v>643.0931877194876</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="C22" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="D22" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="E22" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="F22" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="G22" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H22" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I22" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J22" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="K22" t="n">
         <v>100.3730120089408</v>
@@ -5917,7 +5917,7 @@
         <v>240.221244450514</v>
       </c>
       <c r="M22" t="n">
-        <v>399.5890444445321</v>
+        <v>399.589044444532</v>
       </c>
       <c r="N22" t="n">
         <v>558.4018918284992</v>
@@ -5929,31 +5929,31 @@
         <v>789.0639197867025</v>
       </c>
       <c r="Q22" t="n">
-        <v>773.0769737594569</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="R22" t="n">
-        <v>773.0769737594569</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="S22" t="n">
-        <v>564.0604157909426</v>
+        <v>789.0639197867025</v>
       </c>
       <c r="T22" t="n">
-        <v>332.0321178883455</v>
+        <v>778.7664778869502</v>
       </c>
       <c r="U22" t="n">
-        <v>266.5874235966524</v>
+        <v>491.5909275924125</v>
       </c>
       <c r="V22" t="n">
-        <v>151.3724475900629</v>
+        <v>452.5864791536798</v>
       </c>
       <c r="W22" t="n">
-        <v>86.94690211030655</v>
+        <v>388.1609336739236</v>
       </c>
       <c r="X22" t="n">
-        <v>77.42529400852688</v>
+        <v>258.1385840339875</v>
       </c>
       <c r="Y22" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1011.589350439691</v>
+        <v>1011.58935043969</v>
       </c>
       <c r="C23" t="n">
-        <v>851.386447775343</v>
+        <v>851.3864477753424</v>
       </c>
       <c r="D23" t="n">
-        <v>700.2933390054113</v>
+        <v>700.2933390054106</v>
       </c>
       <c r="E23" t="n">
-        <v>527.2384751143627</v>
+        <v>527.2384751143622</v>
       </c>
       <c r="F23" t="n">
-        <v>334.8181404273776</v>
+        <v>334.8181404273773</v>
       </c>
       <c r="G23" t="n">
-        <v>141.0453731662251</v>
+        <v>141.045373166225</v>
       </c>
       <c r="H23" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I23" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J23" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="K23" t="n">
         <v>351.0925257100922</v>
       </c>
       <c r="L23" t="n">
-        <v>791.8343650009841</v>
+        <v>483.4988764953447</v>
       </c>
       <c r="M23" t="n">
-        <v>1238.614252176008</v>
+        <v>483.4988764953447</v>
       </c>
       <c r="N23" t="n">
-        <v>1238.614252176008</v>
+        <v>930.2787636703688</v>
       </c>
       <c r="O23" t="n">
-        <v>1334.424833309986</v>
+        <v>1334.424833309985</v>
       </c>
       <c r="P23" t="n">
-        <v>1647.196693636563</v>
+        <v>1647.196693636562</v>
       </c>
       <c r="Q23" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R23" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="S23" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="T23" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="U23" t="n">
-        <v>1772.064810092614</v>
+        <v>1772.064810092613</v>
       </c>
       <c r="V23" t="n">
-        <v>1656.8163919914</v>
+        <v>1656.816391991398</v>
       </c>
       <c r="W23" t="n">
-        <v>1516.012317851845</v>
+        <v>1516.012317851844</v>
       </c>
       <c r="X23" t="n">
-        <v>1355.713033376183</v>
+        <v>1355.713033376182</v>
       </c>
       <c r="Y23" t="n">
-        <v>1183.902033954866</v>
+        <v>1183.902033954865</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>528.6621780168729</v>
+        <v>550.4012309479549</v>
       </c>
       <c r="C24" t="n">
-        <v>366.9585052578276</v>
+        <v>550.4012309479549</v>
       </c>
       <c r="D24" t="n">
-        <v>228.1198682480396</v>
+        <v>411.562593938167</v>
       </c>
       <c r="E24" t="n">
-        <v>228.1198682480396</v>
+        <v>264.5345839950382</v>
       </c>
       <c r="F24" t="n">
-        <v>93.42607019791399</v>
+        <v>164.5107025281864</v>
       </c>
       <c r="G24" t="n">
-        <v>93.42607019791399</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H24" t="n">
-        <v>93.42607019791399</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I24" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J24" t="n">
         <v>126.102135052085</v>
       </c>
       <c r="K24" t="n">
-        <v>126.102135052085</v>
+        <v>406.4308839238591</v>
       </c>
       <c r="L24" t="n">
-        <v>560.2822089862237</v>
+        <v>840.6109578579978</v>
       </c>
       <c r="M24" t="n">
-        <v>798.2172206152198</v>
+        <v>996.1766675899484</v>
       </c>
       <c r="N24" t="n">
-        <v>798.2172206152198</v>
+        <v>996.1766675899484</v>
       </c>
       <c r="O24" t="n">
-        <v>1244.997107790244</v>
+        <v>1442.956554764972</v>
       </c>
       <c r="P24" t="n">
-        <v>1607.211814338501</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="Q24" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.330975672994</v>
+        <v>1765.330975672993</v>
       </c>
       <c r="S24" t="n">
-        <v>1618.498058982888</v>
+        <v>1618.498058982887</v>
       </c>
       <c r="T24" t="n">
-        <v>1431.107707947713</v>
+        <v>1431.107707947712</v>
       </c>
       <c r="U24" t="n">
-        <v>1355.710100238695</v>
+        <v>1212.634048616732</v>
       </c>
       <c r="V24" t="n">
-        <v>1127.314477687029</v>
+        <v>984.2384260650661</v>
       </c>
       <c r="W24" t="n">
-        <v>885.9986089203393</v>
+        <v>742.9225572983761</v>
       </c>
       <c r="X24" t="n">
-        <v>688.0816207981338</v>
+        <v>742.9225572983761</v>
       </c>
       <c r="Y24" t="n">
-        <v>688.0816207981338</v>
+        <v>550.4012309479549</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="C25" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="D25" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="E25" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="F25" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="G25" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="H25" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="I25" t="n">
-        <v>77.12099120364853</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="J25" t="n">
-        <v>36.1034252262646</v>
+        <v>36.10342522626458</v>
       </c>
       <c r="K25" t="n">
         <v>100.3730120089408</v>
@@ -6154,7 +6154,7 @@
         <v>240.221244450514</v>
       </c>
       <c r="M25" t="n">
-        <v>399.5890444445321</v>
+        <v>399.589044444532</v>
       </c>
       <c r="N25" t="n">
         <v>558.4018918284992</v>
@@ -6172,25 +6172,25 @@
         <v>773.0769737594569</v>
       </c>
       <c r="S25" t="n">
-        <v>773.0769737594569</v>
+        <v>564.0604157909426</v>
       </c>
       <c r="T25" t="n">
-        <v>762.7795318597044</v>
+        <v>398.359393027484</v>
       </c>
       <c r="U25" t="n">
-        <v>475.6039815651667</v>
+        <v>332.914698735791</v>
       </c>
       <c r="V25" t="n">
-        <v>214.8686771235894</v>
+        <v>293.9102502970583</v>
       </c>
       <c r="W25" t="n">
-        <v>150.443131643833</v>
+        <v>229.4847048173021</v>
       </c>
       <c r="X25" t="n">
-        <v>77.42529400852688</v>
+        <v>219.9630967155226</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.12099120364853</v>
+        <v>219.6587939106444</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1258.988776837337</v>
       </c>
       <c r="E26" t="n">
-        <v>966.5984620063955</v>
+        <v>966.5984620063959</v>
       </c>
       <c r="F26" t="n">
-        <v>654.8426763795176</v>
+        <v>654.8426763795181</v>
       </c>
       <c r="G26" t="n">
-        <v>341.7344581784717</v>
+        <v>341.7344581784728</v>
       </c>
       <c r="H26" t="n">
         <v>117.4570592986185</v>
@@ -6227,22 +6227,22 @@
         <v>292.478128703973</v>
       </c>
       <c r="K26" t="n">
-        <v>707.8249656899995</v>
+        <v>607.4672291878005</v>
       </c>
       <c r="L26" t="n">
-        <v>1148.566804980891</v>
+        <v>1103.988345305508</v>
       </c>
       <c r="M26" t="n">
-        <v>1745.484417915889</v>
+        <v>1700.905958240506</v>
       </c>
       <c r="N26" t="n">
-        <v>2329.1660603947</v>
+        <v>2284.587600719316</v>
       </c>
       <c r="O26" t="n">
-        <v>2833.669866536516</v>
+        <v>2789.091406861132</v>
       </c>
       <c r="P26" t="n">
-        <v>3246.799463365292</v>
+        <v>3202.221003689908</v>
       </c>
       <c r="Q26" t="n">
         <v>3460.553307868774</v>
@@ -6257,13 +6257,13 @@
         <v>3318.550306664298</v>
       </c>
       <c r="U26" t="n">
-        <v>3166.108404503788</v>
+        <v>3166.108404503789</v>
       </c>
       <c r="V26" t="n">
-        <v>2931.524535462681</v>
+        <v>2931.524535462682</v>
       </c>
       <c r="W26" t="n">
-        <v>2671.385010383234</v>
+        <v>2671.385010383235</v>
       </c>
       <c r="X26" t="n">
         <v>2391.75027496768</v>
@@ -6303,25 +6303,25 @@
         <v>70.18077099253061</v>
       </c>
       <c r="J27" t="n">
-        <v>70.18077099253061</v>
+        <v>160.1794808183511</v>
       </c>
       <c r="K27" t="n">
-        <v>70.18077099253061</v>
+        <v>160.1794808183511</v>
       </c>
       <c r="L27" t="n">
-        <v>504.3608449266693</v>
+        <v>594.3595547524898</v>
       </c>
       <c r="M27" t="n">
-        <v>1069.165027155159</v>
+        <v>1159.163736980979</v>
       </c>
       <c r="N27" t="n">
-        <v>1662.312798467207</v>
+        <v>1519.836543086607</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.418896827602</v>
+        <v>1986.942641447002</v>
       </c>
       <c r="P27" t="n">
-        <v>2491.633603375858</v>
+        <v>2349.157347995259</v>
       </c>
       <c r="Q27" t="n">
         <v>2547.116794969988</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>442.3236065373151</v>
+        <v>442.3236065373158</v>
       </c>
       <c r="C28" t="n">
-        <v>375.1030420619472</v>
+        <v>375.1030420619479</v>
       </c>
       <c r="D28" t="n">
-        <v>324.4265539526618</v>
+        <v>324.4265539526625</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8129447769325</v>
+        <v>274.8129447769331</v>
       </c>
       <c r="F28" t="n">
-        <v>224.7276948656614</v>
+        <v>224.7276948656621</v>
       </c>
       <c r="G28" t="n">
-        <v>158.4726535964412</v>
+        <v>158.4726535964419</v>
       </c>
       <c r="H28" t="n">
         <v>103.8897557057442</v>
@@ -6388,10 +6388,10 @@
         <v>294.964514365171</v>
       </c>
       <c r="L28" t="n">
-        <v>535.1704833089436</v>
+        <v>535.1704833089433</v>
       </c>
       <c r="M28" t="n">
-        <v>794.8960198051608</v>
+        <v>794.8960198051604</v>
       </c>
       <c r="N28" t="n">
         <v>1054.066603691327</v>
@@ -6412,22 +6412,22 @@
         <v>1428.494316814693</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.861423975047</v>
+        <v>1298.861423975048</v>
       </c>
       <c r="U28" t="n">
         <v>1114.081278743462</v>
       </c>
       <c r="V28" t="n">
-        <v>955.7413793648359</v>
+        <v>955.7413793648363</v>
       </c>
       <c r="W28" t="n">
-        <v>771.9803829451865</v>
+        <v>771.9803829451872</v>
       </c>
       <c r="X28" t="n">
-        <v>643.1233239035141</v>
+        <v>643.1233239035148</v>
       </c>
       <c r="Y28" t="n">
-        <v>523.4835701587431</v>
+        <v>523.4835701587438</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>1808.955690151402</v>
       </c>
       <c r="C29" t="n">
-        <v>1529.417336547161</v>
+        <v>1529.417336547162</v>
       </c>
       <c r="D29" t="n">
         <v>1258.988776837337</v>
@@ -6461,28 +6461,28 @@
         <v>70.18077099253061</v>
       </c>
       <c r="J29" t="n">
-        <v>292.4781287039731</v>
+        <v>292.478128703973</v>
       </c>
       <c r="K29" t="n">
-        <v>707.8249656899999</v>
+        <v>707.8249656899997</v>
       </c>
       <c r="L29" t="n">
-        <v>1248.924541483091</v>
+        <v>1148.566804980891</v>
       </c>
       <c r="M29" t="n">
-        <v>1845.84215441809</v>
+        <v>1745.484417915889</v>
       </c>
       <c r="N29" t="n">
-        <v>2429.5237968969</v>
+        <v>2329.1660603947</v>
       </c>
       <c r="O29" t="n">
-        <v>2889.449143363331</v>
+        <v>2833.669866536516</v>
       </c>
       <c r="P29" t="n">
-        <v>3202.221003689908</v>
+        <v>3246.799463365292</v>
       </c>
       <c r="Q29" t="n">
-        <v>3460.553307868774</v>
+        <v>3505.131767544157</v>
       </c>
       <c r="R29" t="n">
         <v>3509.03854962653</v>
@@ -6500,13 +6500,13 @@
         <v>2931.524535462682</v>
       </c>
       <c r="W29" t="n">
-        <v>2671.385010383236</v>
+        <v>2671.385010383235</v>
       </c>
       <c r="X29" t="n">
-        <v>2391.750274967681</v>
+        <v>2391.75027496768</v>
       </c>
       <c r="Y29" t="n">
-        <v>2100.603824606469</v>
+        <v>2100.60382460647</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>70.18077099253061</v>
       </c>
       <c r="J30" t="n">
-        <v>70.18077099253061</v>
+        <v>160.1794808183511</v>
       </c>
       <c r="K30" t="n">
-        <v>350.5095198643048</v>
+        <v>440.5082296901252</v>
       </c>
       <c r="L30" t="n">
-        <v>361.8845895460688</v>
+        <v>874.6883036242639</v>
       </c>
       <c r="M30" t="n">
-        <v>926.6887717745585</v>
+        <v>926.688771774559</v>
       </c>
       <c r="N30" t="n">
         <v>1519.836543086607</v>
@@ -6607,10 +6607,10 @@
         <v>274.8129447769328</v>
       </c>
       <c r="F31" t="n">
-        <v>224.7276948656617</v>
+        <v>224.7276948656618</v>
       </c>
       <c r="G31" t="n">
-        <v>158.4726535964415</v>
+        <v>158.4726535964416</v>
       </c>
       <c r="H31" t="n">
         <v>103.8897557057442</v>
@@ -6619,7 +6619,7 @@
         <v>70.18077099253061</v>
       </c>
       <c r="J31" t="n">
-        <v>130.3371910802958</v>
+        <v>130.3371910802959</v>
       </c>
       <c r="K31" t="n">
         <v>294.9645143651712</v>
@@ -6680,16 +6680,16 @@
         <v>1529.417336547161</v>
       </c>
       <c r="D32" t="n">
-        <v>1258.988776837336</v>
+        <v>1258.988776837337</v>
       </c>
       <c r="E32" t="n">
-        <v>966.598462006395</v>
+        <v>966.5984620063954</v>
       </c>
       <c r="F32" t="n">
-        <v>654.8426763795172</v>
+        <v>654.8426763795176</v>
       </c>
       <c r="G32" t="n">
-        <v>341.7344581784719</v>
+        <v>341.7344581784723</v>
       </c>
       <c r="H32" t="n">
         <v>117.4570592986184</v>
@@ -6698,22 +6698,22 @@
         <v>70.18077099253061</v>
       </c>
       <c r="J32" t="n">
-        <v>247.8996690285875</v>
+        <v>292.478128703973</v>
       </c>
       <c r="K32" t="n">
-        <v>663.2465060146143</v>
+        <v>707.8249656899998</v>
       </c>
       <c r="L32" t="n">
-        <v>1204.346081807706</v>
+        <v>1148.566804980892</v>
       </c>
       <c r="M32" t="n">
-        <v>1700.905958240505</v>
+        <v>1745.48441791589</v>
       </c>
       <c r="N32" t="n">
-        <v>2284.587600719316</v>
+        <v>2329.1660603947</v>
       </c>
       <c r="O32" t="n">
-        <v>2789.091406861131</v>
+        <v>2789.091406861132</v>
       </c>
       <c r="P32" t="n">
         <v>3202.221003689908</v>
@@ -6740,10 +6740,10 @@
         <v>2671.385010383234</v>
       </c>
       <c r="X32" t="n">
-        <v>2391.750274967679</v>
+        <v>2391.75027496768</v>
       </c>
       <c r="Y32" t="n">
-        <v>2100.603824606469</v>
+        <v>2100.60382460647</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>70.18077099253061</v>
       </c>
       <c r="L33" t="n">
-        <v>504.3608449266695</v>
+        <v>504.3608449266693</v>
       </c>
       <c r="M33" t="n">
         <v>1069.165027155159</v>
       </c>
       <c r="N33" t="n">
-        <v>1662.312798467208</v>
+        <v>1662.312798467207</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.418896827603</v>
+        <v>1986.942641447002</v>
       </c>
       <c r="P33" t="n">
-        <v>2491.633603375859</v>
+        <v>2349.157347995259</v>
       </c>
       <c r="Q33" t="n">
         <v>2547.116794969988</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442.3236065373158</v>
+        <v>442.3236065373156</v>
       </c>
       <c r="C34" t="n">
-        <v>375.1030420619479</v>
+        <v>375.1030420619478</v>
       </c>
       <c r="D34" t="n">
-        <v>324.4265539526625</v>
+        <v>324.4265539526624</v>
       </c>
       <c r="E34" t="n">
         <v>274.8129447769331</v>
       </c>
       <c r="F34" t="n">
-        <v>224.7276948656621</v>
+        <v>224.727694865662</v>
       </c>
       <c r="G34" t="n">
         <v>158.4726535964419</v>
@@ -6859,22 +6859,22 @@
         <v>130.3371910802957</v>
       </c>
       <c r="K34" t="n">
-        <v>294.9645143651715</v>
+        <v>294.9645143651711</v>
       </c>
       <c r="L34" t="n">
-        <v>535.1704833089439</v>
+        <v>535.1704833089434</v>
       </c>
       <c r="M34" t="n">
-        <v>794.896019805161</v>
+        <v>794.8960198051604</v>
       </c>
       <c r="N34" t="n">
         <v>1054.066603691327</v>
       </c>
       <c r="O34" t="n">
-        <v>1290.19515603533</v>
+        <v>1290.195156035329</v>
       </c>
       <c r="P34" t="n">
-        <v>1485.444104653929</v>
+        <v>1485.444104653928</v>
       </c>
       <c r="Q34" t="n">
         <v>1570.133035354824</v>
@@ -6886,22 +6886,22 @@
         <v>1428.494316814693</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.861423975048</v>
+        <v>1298.861423975047</v>
       </c>
       <c r="U34" t="n">
         <v>1114.081278743462</v>
       </c>
       <c r="V34" t="n">
-        <v>955.7413793648365</v>
+        <v>955.7413793648362</v>
       </c>
       <c r="W34" t="n">
-        <v>771.9803829451874</v>
+        <v>771.9803829451872</v>
       </c>
       <c r="X34" t="n">
-        <v>643.1233239035148</v>
+        <v>643.1233239035147</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.4835701587438</v>
+        <v>523.4835701587436</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1350.057431477639</v>
+        <v>1350.05743147764</v>
       </c>
       <c r="C35" t="n">
-        <v>1135.85089689843</v>
+        <v>1135.850896898432</v>
       </c>
       <c r="D35" t="n">
-        <v>930.7541562136382</v>
+        <v>930.7541562136391</v>
       </c>
       <c r="E35" t="n">
-        <v>703.6956604077293</v>
+        <v>703.6956604077302</v>
       </c>
       <c r="F35" t="n">
-        <v>457.2716938058838</v>
+        <v>457.2716938058846</v>
       </c>
       <c r="G35" t="n">
         <v>209.4952946298711</v>
       </c>
       <c r="H35" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="I35" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="J35" t="n">
         <v>172.4893359842935</v>
       </c>
       <c r="K35" t="n">
-        <v>487.4784364681212</v>
+        <v>487.4784364681211</v>
       </c>
       <c r="L35" t="n">
-        <v>928.2202757590132</v>
+        <v>928.220275759013</v>
       </c>
       <c r="M35" t="n">
-        <v>1424.780152191812</v>
+        <v>1169.269335133038</v>
       </c>
       <c r="N35" t="n">
-        <v>1908.104058168424</v>
+        <v>1652.593241109649</v>
       </c>
       <c r="O35" t="n">
-        <v>2312.250127808041</v>
+        <v>2056.739310749266</v>
       </c>
       <c r="P35" t="n">
-        <v>2527.485738752508</v>
+        <v>2369.511171075843</v>
       </c>
       <c r="Q35" t="n">
-        <v>2527.485738752508</v>
+        <v>2527.485738752509</v>
       </c>
       <c r="R35" t="n">
-        <v>2527.485738752508</v>
+        <v>2527.485738752509</v>
       </c>
       <c r="S35" t="n">
-        <v>2521.664765755201</v>
+        <v>2521.664765755202</v>
       </c>
       <c r="T35" t="n">
-        <v>2467.66113384034</v>
+        <v>2467.661133840342</v>
       </c>
       <c r="U35" t="n">
-        <v>2380.551050704863</v>
+        <v>2380.551050704865</v>
       </c>
       <c r="V35" t="n">
-        <v>2211.299000688789</v>
+        <v>2211.29900068879</v>
       </c>
       <c r="W35" t="n">
-        <v>2016.491294634374</v>
+        <v>2016.491294634375</v>
       </c>
       <c r="X35" t="n">
-        <v>1802.188378243852</v>
+        <v>1802.188378243853</v>
       </c>
       <c r="Y35" t="n">
-        <v>1576.373746907674</v>
+        <v>1576.373746907675</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.3792774837672</v>
+        <v>915.3792774837691</v>
       </c>
       <c r="C36" t="n">
-        <v>753.6756047247219</v>
+        <v>753.6756047247238</v>
       </c>
       <c r="D36" t="n">
-        <v>614.836967714934</v>
+        <v>614.8369677149359</v>
       </c>
       <c r="E36" t="n">
-        <v>467.8089577718051</v>
+        <v>467.8089577718071</v>
       </c>
       <c r="F36" t="n">
-        <v>333.1151597216795</v>
+        <v>333.1151597216815</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7078824197577</v>
+        <v>204.7078824197597</v>
       </c>
       <c r="H36" t="n">
-        <v>107.8723597466995</v>
+        <v>107.8723597467015</v>
       </c>
       <c r="I36" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="J36" t="n">
         <v>140.5484246008706</v>
       </c>
       <c r="K36" t="n">
-        <v>375.179557754845</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="L36" t="n">
-        <v>809.3596316889839</v>
+        <v>540.2129803033204</v>
       </c>
       <c r="M36" t="n">
-        <v>1374.163813917474</v>
+        <v>1105.01716253181</v>
       </c>
       <c r="N36" t="n">
-        <v>1967.311585229522</v>
+        <v>1698.164933843858</v>
       </c>
       <c r="O36" t="n">
-        <v>1967.311585229522</v>
+        <v>2165.271032204253</v>
       </c>
       <c r="P36" t="n">
-        <v>2329.526291777779</v>
+        <v>2527.485738752509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.485738752508</v>
+        <v>2527.485738752509</v>
       </c>
       <c r="R36" t="n">
-        <v>2487.645453112272</v>
+        <v>2487.645453112274</v>
       </c>
       <c r="S36" t="n">
-        <v>2340.812536422166</v>
+        <v>2340.812536422168</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.42218538699</v>
+        <v>2153.422185386992</v>
       </c>
       <c r="U36" t="n">
-        <v>1934.948526056011</v>
+        <v>1934.948526056012</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.552903504345</v>
+        <v>1706.552903504346</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.237034737655</v>
+        <v>1465.237034737656</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.320046615449</v>
+        <v>1267.320046615451</v>
       </c>
       <c r="Y36" t="n">
-        <v>1074.798720265028</v>
+        <v>1074.79872026503</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.36168246957353</v>
+        <v>53.36168246957356</v>
       </c>
       <c r="C37" t="n">
-        <v>51.472937019238</v>
+        <v>51.47293701923802</v>
       </c>
       <c r="D37" t="n">
-        <v>51.472937019238</v>
+        <v>51.47293701923802</v>
       </c>
       <c r="E37" t="n">
-        <v>51.472937019238</v>
+        <v>51.47293701923802</v>
       </c>
       <c r="F37" t="n">
-        <v>51.472937019238</v>
+        <v>51.47293701923802</v>
       </c>
       <c r="G37" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="H37" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="I37" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="J37" t="n">
-        <v>50.54971477505016</v>
+        <v>50.54971477505019</v>
       </c>
       <c r="K37" t="n">
-        <v>114.8193015577265</v>
+        <v>114.8193015577264</v>
       </c>
       <c r="L37" t="n">
-        <v>254.6675339992997</v>
+        <v>254.6675339992996</v>
       </c>
       <c r="M37" t="n">
-        <v>414.0353339933179</v>
+        <v>414.0353339933176</v>
       </c>
       <c r="N37" t="n">
-        <v>572.8481813772851</v>
+        <v>572.8481813772847</v>
       </c>
       <c r="O37" t="n">
-        <v>708.6189972190887</v>
+        <v>708.6189972190882</v>
       </c>
       <c r="P37" t="n">
-        <v>803.5102093354885</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="Q37" t="n">
-        <v>791.2262175402386</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="R37" t="n">
-        <v>791.2262175402386</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="S37" t="n">
-        <v>749.9368836597084</v>
+        <v>749.9368836597085</v>
       </c>
       <c r="T37" t="n">
-        <v>685.6358098450955</v>
+        <v>685.6358098450957</v>
       </c>
       <c r="U37" t="n">
-        <v>566.1874836385421</v>
+        <v>566.1874836385422</v>
       </c>
       <c r="V37" t="n">
-        <v>305.4521791969647</v>
+        <v>473.1794032849489</v>
       </c>
       <c r="W37" t="n">
-        <v>187.023001802348</v>
+        <v>354.7502258903322</v>
       </c>
       <c r="X37" t="n">
-        <v>123.4977617857079</v>
+        <v>291.2249858736922</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.18982706596918</v>
+        <v>69.18982706596921</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1350.057431477639</v>
+        <v>1350.057431477638</v>
       </c>
       <c r="C38" t="n">
-        <v>1135.850896898431</v>
+        <v>1135.85089689843</v>
       </c>
       <c r="D38" t="n">
-        <v>930.7541562136387</v>
+        <v>930.7541562136382</v>
       </c>
       <c r="E38" t="n">
-        <v>703.6956604077297</v>
+        <v>703.6956604077293</v>
       </c>
       <c r="F38" t="n">
-        <v>457.2716938058844</v>
+        <v>457.2716938058838</v>
       </c>
       <c r="G38" t="n">
-        <v>209.495294629871</v>
+        <v>209.4952946298711</v>
       </c>
       <c r="H38" t="n">
         <v>50.54971477505016</v>
@@ -7172,25 +7172,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J38" t="n">
-        <v>50.54971477505016</v>
+        <v>172.4893359842934</v>
       </c>
       <c r="K38" t="n">
-        <v>365.5388152588779</v>
+        <v>487.478436468121</v>
       </c>
       <c r="L38" t="n">
-        <v>806.2806545497699</v>
+        <v>928.2202757590129</v>
       </c>
       <c r="M38" t="n">
-        <v>1169.269335133036</v>
+        <v>1424.780152191812</v>
       </c>
       <c r="N38" t="n">
-        <v>1652.593241109647</v>
+        <v>1908.104058168423</v>
       </c>
       <c r="O38" t="n">
-        <v>2056.739310749264</v>
+        <v>2214.71387842593</v>
       </c>
       <c r="P38" t="n">
-        <v>2369.511171075842</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="Q38" t="n">
         <v>2527.485738752508</v>
@@ -7199,7 +7199,7 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S38" t="n">
-        <v>2521.664765755201</v>
+        <v>2521.6647657552</v>
       </c>
       <c r="T38" t="n">
         <v>2467.66113384034</v>
@@ -7214,10 +7214,10 @@
         <v>2016.491294634374</v>
       </c>
       <c r="X38" t="n">
-        <v>1802.188378243852</v>
+        <v>1802.188378243851</v>
       </c>
       <c r="Y38" t="n">
-        <v>1576.373746907674</v>
+        <v>1576.373746907673</v>
       </c>
     </row>
     <row r="39">
@@ -7227,61 +7227,61 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.3792774837674</v>
+        <v>915.3792774837673</v>
       </c>
       <c r="C39" t="n">
-        <v>753.6756047247222</v>
+        <v>753.675604724722</v>
       </c>
       <c r="D39" t="n">
-        <v>614.8369677149344</v>
+        <v>614.8369677149341</v>
       </c>
       <c r="E39" t="n">
-        <v>467.8089577718056</v>
+        <v>467.8089577718053</v>
       </c>
       <c r="F39" t="n">
-        <v>333.1151597216798</v>
+        <v>333.1151597216797</v>
       </c>
       <c r="G39" t="n">
         <v>204.7078824197579</v>
       </c>
       <c r="H39" t="n">
-        <v>107.8723597466995</v>
+        <v>107.8723597466997</v>
       </c>
       <c r="I39" t="n">
         <v>50.54971477505016</v>
       </c>
       <c r="J39" t="n">
-        <v>50.54971477505016</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="K39" t="n">
-        <v>330.8784636468244</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="L39" t="n">
-        <v>342.2535333285889</v>
+        <v>574.7284985350093</v>
       </c>
       <c r="M39" t="n">
-        <v>907.0577155570786</v>
+        <v>1139.532680763499</v>
       </c>
       <c r="N39" t="n">
-        <v>1500.205486869127</v>
+        <v>1732.680452075547</v>
       </c>
       <c r="O39" t="n">
         <v>1967.311585229522</v>
       </c>
       <c r="P39" t="n">
-        <v>2329.526291777779</v>
+        <v>2329.526291777778</v>
       </c>
       <c r="Q39" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R39" t="n">
-        <v>2487.645453112273</v>
+        <v>2487.645453112272</v>
       </c>
       <c r="S39" t="n">
-        <v>2340.812536422167</v>
+        <v>2340.812536422166</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.422185386991</v>
+        <v>2153.42218538699</v>
       </c>
       <c r="U39" t="n">
         <v>1934.948526056011</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.37924844695726</v>
+        <v>53.36168246957352</v>
       </c>
       <c r="C40" t="n">
-        <v>92.49050299662181</v>
+        <v>51.47293701923799</v>
       </c>
       <c r="D40" t="n">
-        <v>92.49050299662181</v>
+        <v>51.47293701923799</v>
       </c>
       <c r="E40" t="n">
-        <v>92.49050299662181</v>
+        <v>51.47293701923799</v>
       </c>
       <c r="F40" t="n">
-        <v>92.49050299662181</v>
+        <v>51.47293701923799</v>
       </c>
       <c r="G40" t="n">
-        <v>91.56728075243406</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="H40" t="n">
-        <v>91.56728075243406</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="I40" t="n">
-        <v>91.56728075243406</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="J40" t="n">
         <v>50.54971477505016</v>
       </c>
       <c r="K40" t="n">
-        <v>114.8193015577265</v>
+        <v>114.8193015577264</v>
       </c>
       <c r="L40" t="n">
-        <v>254.6675339992997</v>
+        <v>254.6675339992996</v>
       </c>
       <c r="M40" t="n">
-        <v>414.0353339933179</v>
+        <v>414.0353339933176</v>
       </c>
       <c r="N40" t="n">
-        <v>572.8481813772851</v>
+        <v>572.8481813772847</v>
       </c>
       <c r="O40" t="n">
-        <v>708.6189972190887</v>
+        <v>708.6189972190882</v>
       </c>
       <c r="P40" t="n">
-        <v>803.5102093354885</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="Q40" t="n">
-        <v>803.5102093354885</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="R40" t="n">
-        <v>803.5102093354885</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="S40" t="n">
-        <v>762.2208754549584</v>
+        <v>762.2208754549579</v>
       </c>
       <c r="T40" t="n">
-        <v>558.9261517344946</v>
+        <v>697.919801640345</v>
       </c>
       <c r="U40" t="n">
-        <v>439.4778255279412</v>
+        <v>578.4714754337915</v>
       </c>
       <c r="V40" t="n">
-        <v>346.4697451743481</v>
+        <v>485.4633950801983</v>
       </c>
       <c r="W40" t="n">
-        <v>228.0405677797314</v>
+        <v>354.7502258903322</v>
       </c>
       <c r="X40" t="n">
-        <v>164.5153277630915</v>
+        <v>291.2249858736921</v>
       </c>
       <c r="Y40" t="n">
-        <v>110.2073930433528</v>
+        <v>236.9170511539534</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1350.05743147764</v>
+        <v>1350.057431477639</v>
       </c>
       <c r="C41" t="n">
-        <v>1135.850896898432</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D41" t="n">
-        <v>930.7541562136394</v>
+        <v>930.7541562136385</v>
       </c>
       <c r="E41" t="n">
-        <v>703.6956604077305</v>
+        <v>703.6956604077296</v>
       </c>
       <c r="F41" t="n">
-        <v>457.271693805885</v>
+        <v>457.2716938058843</v>
       </c>
       <c r="G41" t="n">
-        <v>209.495294629871</v>
+        <v>209.4952946298709</v>
       </c>
       <c r="H41" t="n">
         <v>50.54971477505016</v>
@@ -7409,25 +7409,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J41" t="n">
-        <v>172.4893359842935</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K41" t="n">
-        <v>487.4784364681212</v>
+        <v>365.5388152588778</v>
       </c>
       <c r="L41" t="n">
-        <v>830.6840263769031</v>
+        <v>806.2806545497697</v>
       </c>
       <c r="M41" t="n">
-        <v>1327.243902809702</v>
+        <v>1302.840530982569</v>
       </c>
       <c r="N41" t="n">
-        <v>1810.567808786314</v>
+        <v>1652.593241109648</v>
       </c>
       <c r="O41" t="n">
-        <v>2214.71387842593</v>
+        <v>2056.739310749264</v>
       </c>
       <c r="P41" t="n">
-        <v>2527.485738752508</v>
+        <v>2369.511171075842</v>
       </c>
       <c r="Q41" t="n">
         <v>2527.485738752508</v>
@@ -7436,25 +7436,25 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S41" t="n">
-        <v>2521.664765755201</v>
+        <v>2521.6647657552</v>
       </c>
       <c r="T41" t="n">
         <v>2467.66113384034</v>
       </c>
       <c r="U41" t="n">
-        <v>2380.551050704864</v>
+        <v>2380.551050704863</v>
       </c>
       <c r="V41" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W41" t="n">
-        <v>2016.491294634375</v>
+        <v>2016.491294634374</v>
       </c>
       <c r="X41" t="n">
         <v>1802.188378243852</v>
       </c>
       <c r="Y41" t="n">
-        <v>1576.373746907675</v>
+        <v>1576.373746907674</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.3792774837677</v>
+        <v>915.3792774837674</v>
       </c>
       <c r="C42" t="n">
-        <v>753.6756047247225</v>
+        <v>753.6756047247222</v>
       </c>
       <c r="D42" t="n">
-        <v>614.8369677149345</v>
+        <v>614.8369677149344</v>
       </c>
       <c r="E42" t="n">
-        <v>467.8089577718058</v>
+        <v>467.8089577718056</v>
       </c>
       <c r="F42" t="n">
-        <v>333.1151597216801</v>
+        <v>333.1151597216798</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7078824197583</v>
+        <v>204.7078824197577</v>
       </c>
       <c r="H42" t="n">
         <v>107.8723597466995</v>
@@ -7488,31 +7488,31 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J42" t="n">
-        <v>140.5484246008706</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="K42" t="n">
-        <v>420.8771734726449</v>
+        <v>330.8784636468243</v>
       </c>
       <c r="L42" t="n">
-        <v>704.4682398768452</v>
+        <v>540.2129803033185</v>
       </c>
       <c r="M42" t="n">
-        <v>1269.272422105335</v>
+        <v>1105.017162531808</v>
       </c>
       <c r="N42" t="n">
-        <v>1862.420193417384</v>
+        <v>1698.164933843856</v>
       </c>
       <c r="O42" t="n">
-        <v>2329.526291777779</v>
+        <v>2165.271032204251</v>
       </c>
       <c r="P42" t="n">
-        <v>2329.526291777779</v>
+        <v>2527.485738752508</v>
       </c>
       <c r="Q42" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R42" t="n">
-        <v>2487.645453112273</v>
+        <v>2487.645453112272</v>
       </c>
       <c r="S42" t="n">
         <v>2340.812536422166</v>
@@ -7530,10 +7530,10 @@
         <v>1465.237034737655</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.32004661545</v>
+        <v>1267.320046615449</v>
       </c>
       <c r="Y42" t="n">
-        <v>1074.798720265029</v>
+        <v>1074.798720265028</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>205.8423374437962</v>
+        <v>65.64567426482404</v>
       </c>
       <c r="C43" t="n">
-        <v>203.9535919934608</v>
+        <v>51.47293701923785</v>
       </c>
       <c r="D43" t="n">
-        <v>203.9535919934608</v>
+        <v>51.47293701923785</v>
       </c>
       <c r="E43" t="n">
-        <v>203.9535919934608</v>
+        <v>51.47293701923785</v>
       </c>
       <c r="F43" t="n">
-        <v>51.47293701923788</v>
+        <v>51.47293701923785</v>
       </c>
       <c r="G43" t="n">
         <v>50.54971477505016</v>
@@ -7570,49 +7570,49 @@
         <v>50.54971477505016</v>
       </c>
       <c r="K43" t="n">
-        <v>114.8193015577265</v>
+        <v>114.8193015577264</v>
       </c>
       <c r="L43" t="n">
-        <v>254.6675339992997</v>
+        <v>254.6675339992996</v>
       </c>
       <c r="M43" t="n">
-        <v>414.0353339933179</v>
+        <v>414.0353339933176</v>
       </c>
       <c r="N43" t="n">
-        <v>572.8481813772851</v>
+        <v>572.8481813772847</v>
       </c>
       <c r="O43" t="n">
-        <v>708.6189972190887</v>
+        <v>708.6189972190882</v>
       </c>
       <c r="P43" t="n">
-        <v>803.5102093354885</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="Q43" t="n">
-        <v>803.5102093354885</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="R43" t="n">
-        <v>803.5102093354885</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="S43" t="n">
-        <v>762.2208754549584</v>
+        <v>762.2208754549581</v>
       </c>
       <c r="T43" t="n">
-        <v>697.9198016403457</v>
+        <v>530.1925775523611</v>
       </c>
       <c r="U43" t="n">
-        <v>578.4714754337923</v>
+        <v>410.7442513458077</v>
       </c>
       <c r="V43" t="n">
-        <v>485.4633950801992</v>
+        <v>317.7361709922146</v>
       </c>
       <c r="W43" t="n">
-        <v>367.0342176855826</v>
+        <v>199.3069935975981</v>
       </c>
       <c r="X43" t="n">
-        <v>303.5089776689426</v>
+        <v>135.7817535809581</v>
       </c>
       <c r="Y43" t="n">
-        <v>221.6704820401917</v>
+        <v>81.47381886121954</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1350.05743147764</v>
+        <v>1350.057431477639</v>
       </c>
       <c r="C44" t="n">
-        <v>1135.850896898432</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D44" t="n">
-        <v>930.7541562136392</v>
+        <v>930.7541562136385</v>
       </c>
       <c r="E44" t="n">
-        <v>703.6956604077304</v>
+        <v>703.6956604077295</v>
       </c>
       <c r="F44" t="n">
-        <v>457.2716938058851</v>
+        <v>457.2716938058843</v>
       </c>
       <c r="G44" t="n">
         <v>209.495294629871</v>
@@ -7646,22 +7646,22 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J44" t="n">
-        <v>50.54971477505016</v>
+        <v>172.4893359842934</v>
       </c>
       <c r="K44" t="n">
-        <v>365.5388152588779</v>
+        <v>487.478436468121</v>
       </c>
       <c r="L44" t="n">
-        <v>806.2806545497699</v>
+        <v>928.2202757590129</v>
       </c>
       <c r="M44" t="n">
-        <v>1302.840530982569</v>
+        <v>1169.269335133036</v>
       </c>
       <c r="N44" t="n">
-        <v>1786.164436959181</v>
+        <v>1652.593241109648</v>
       </c>
       <c r="O44" t="n">
-        <v>2190.310506598797</v>
+        <v>2056.739310749264</v>
       </c>
       <c r="P44" t="n">
         <v>2369.511171075842</v>
@@ -7673,25 +7673,25 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S44" t="n">
-        <v>2521.664765755201</v>
+        <v>2521.6647657552</v>
       </c>
       <c r="T44" t="n">
         <v>2467.66113384034</v>
       </c>
       <c r="U44" t="n">
-        <v>2380.551050704864</v>
+        <v>2380.551050704863</v>
       </c>
       <c r="V44" t="n">
         <v>2211.299000688789</v>
       </c>
       <c r="W44" t="n">
-        <v>2016.491294634375</v>
+        <v>2016.491294634374</v>
       </c>
       <c r="X44" t="n">
         <v>1802.188378243852</v>
       </c>
       <c r="Y44" t="n">
-        <v>1576.373746907675</v>
+        <v>1576.373746907674</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.3792774837674</v>
+        <v>915.3792774837672</v>
       </c>
       <c r="C45" t="n">
-        <v>753.6756047247222</v>
+        <v>753.6756047247219</v>
       </c>
       <c r="D45" t="n">
-        <v>614.8369677149344</v>
+        <v>614.836967714934</v>
       </c>
       <c r="E45" t="n">
-        <v>467.8089577718056</v>
+        <v>467.8089577718051</v>
       </c>
       <c r="F45" t="n">
-        <v>333.1151597216798</v>
+        <v>333.1151597216795</v>
       </c>
       <c r="G45" t="n">
-        <v>204.7078824197579</v>
+        <v>204.7078824197577</v>
       </c>
       <c r="H45" t="n">
         <v>107.8723597466995</v>
@@ -7725,25 +7725,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J45" t="n">
-        <v>50.54971477505016</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="K45" t="n">
-        <v>330.8784636468244</v>
+        <v>342.2535333285891</v>
       </c>
       <c r="L45" t="n">
-        <v>765.0585375809633</v>
+        <v>342.2535333285891</v>
       </c>
       <c r="M45" t="n">
-        <v>1329.862719809453</v>
+        <v>907.0577155570786</v>
       </c>
       <c r="N45" t="n">
-        <v>1698.164933843857</v>
+        <v>1500.205486869127</v>
       </c>
       <c r="O45" t="n">
-        <v>2165.271032204252</v>
+        <v>1967.311585229522</v>
       </c>
       <c r="P45" t="n">
-        <v>2527.485738752508</v>
+        <v>2329.526291777778</v>
       </c>
       <c r="Q45" t="n">
         <v>2527.485738752508</v>
@@ -7755,7 +7755,7 @@
         <v>2340.812536422166</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.422185386991</v>
+        <v>2153.42218538699</v>
       </c>
       <c r="U45" t="n">
         <v>1934.948526056011</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>206.4335756418106</v>
+        <v>53.36168246957335</v>
       </c>
       <c r="C46" t="n">
-        <v>204.5448301914752</v>
+        <v>51.4729370192379</v>
       </c>
       <c r="D46" t="n">
-        <v>51.47293701923788</v>
+        <v>51.4729370192379</v>
       </c>
       <c r="E46" t="n">
-        <v>51.47293701923788</v>
+        <v>51.4729370192379</v>
       </c>
       <c r="F46" t="n">
-        <v>51.47293701923788</v>
+        <v>51.4729370192379</v>
       </c>
       <c r="G46" t="n">
         <v>50.54971477505016</v>
@@ -7807,49 +7807,49 @@
         <v>50.54971477505016</v>
       </c>
       <c r="K46" t="n">
-        <v>114.8193015577265</v>
+        <v>114.8193015577264</v>
       </c>
       <c r="L46" t="n">
-        <v>254.6675339992997</v>
+        <v>254.6675339992996</v>
       </c>
       <c r="M46" t="n">
-        <v>414.0353339933179</v>
+        <v>414.0353339933176</v>
       </c>
       <c r="N46" t="n">
-        <v>572.8481813772851</v>
+        <v>572.8481813772847</v>
       </c>
       <c r="O46" t="n">
-        <v>708.6189972190887</v>
+        <v>708.6189972190882</v>
       </c>
       <c r="P46" t="n">
-        <v>803.5102093354885</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="Q46" t="n">
-        <v>803.5102093354885</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="R46" t="n">
-        <v>803.5102093354885</v>
+        <v>803.5102093354881</v>
       </c>
       <c r="S46" t="n">
-        <v>735.2815527439606</v>
+        <v>749.9368836597079</v>
       </c>
       <c r="T46" t="n">
-        <v>670.9804789293478</v>
+        <v>685.6358098450951</v>
       </c>
       <c r="U46" t="n">
-        <v>551.5321527227944</v>
+        <v>566.1874836385416</v>
       </c>
       <c r="V46" t="n">
-        <v>458.5240723692013</v>
+        <v>473.1794032849484</v>
       </c>
       <c r="W46" t="n">
-        <v>340.0948949745847</v>
+        <v>354.7502258903318</v>
       </c>
       <c r="X46" t="n">
-        <v>276.5696549579447</v>
+        <v>123.4977617857076</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.2617202382061</v>
+        <v>69.18982706596891</v>
       </c>
     </row>
   </sheetData>
@@ -8690,22 +8690,22 @@
         <v>96.65426516890471</v>
       </c>
       <c r="K11" t="n">
-        <v>103.2182277729914</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>98.3875837672669</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>534.0847761085867</v>
+        <v>87.27314443779096</v>
       </c>
       <c r="N11" t="n">
-        <v>531.6378514309459</v>
+        <v>531.6378514309453</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>102.4071485758795</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,22 +8766,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>60.64445572062077</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>271.1380291510328</v>
       </c>
       <c r="M12" t="n">
         <v>34.90730789672773</v>
       </c>
       <c r="N12" t="n">
-        <v>355.2521069928498</v>
+        <v>475.2987390334631</v>
       </c>
       <c r="O12" t="n">
-        <v>491.4894886098791</v>
+        <v>491.4894886098784</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8927,25 +8927,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>103.2182277729914</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>417.6342617337841</v>
+        <v>534.0847761085864</v>
       </c>
       <c r="N14" t="n">
-        <v>80.34503610263855</v>
+        <v>213.5223367101134</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>86.81188247023915</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>116.4392174774052</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9006,25 +9006,25 @@
         <v>73.01055823968255</v>
       </c>
       <c r="K15" t="n">
-        <v>60.64445572062077</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>486.2001232250352</v>
+        <v>34.90730789672773</v>
       </c>
       <c r="N15" t="n">
-        <v>469.7917699705883</v>
+        <v>475.2987390334636</v>
       </c>
       <c r="O15" t="n">
-        <v>491.4894886098791</v>
+        <v>491.4894886098789</v>
       </c>
       <c r="P15" t="n">
         <v>48.12815827408366</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.1414367083925</v>
+        <v>235.7669305780925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,22 +9164,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>103.2182277729914</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>424.2694280183075</v>
       </c>
       <c r="M17" t="n">
-        <v>82.7919607802792</v>
+        <v>534.0847761085864</v>
       </c>
       <c r="N17" t="n">
-        <v>415.1873370561435</v>
+        <v>80.34503610263855</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>102.4071485758795</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9240,22 +9240,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>73.01055823968255</v>
+        <v>121.0963891316439</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>43.52671764789216</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>70.26605470698712</v>
+        <v>486.200123225035</v>
       </c>
       <c r="N18" t="n">
-        <v>475.2987390334638</v>
+        <v>24.00592370515635</v>
       </c>
       <c r="O18" t="n">
-        <v>491.4894886098791</v>
+        <v>40.19667328157171</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9401,25 +9401,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>103.2182277729914</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>534.0847761085867</v>
+        <v>534.0847761085864</v>
       </c>
       <c r="N20" t="n">
-        <v>121.225155585832</v>
+        <v>372.1228748991649</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>86.81188247023915</v>
       </c>
       <c r="P20" t="n">
-        <v>102.4071485758795</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.4392174774052</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,25 +9480,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>60.64445572062077</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>43.52671764789216</v>
       </c>
       <c r="M21" t="n">
-        <v>486.2001232250352</v>
+        <v>34.90730789672773</v>
       </c>
       <c r="N21" t="n">
-        <v>378.8839822677394</v>
+        <v>475.2987390334636</v>
       </c>
       <c r="O21" t="n">
-        <v>491.4894886098791</v>
+        <v>491.4894886098789</v>
       </c>
       <c r="P21" t="n">
-        <v>48.12815827408366</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.1414367083925</v>
+        <v>217.5514331640139</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9641,16 +9641,16 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>542.9595789155856</v>
+        <v>231.5095905260508</v>
       </c>
       <c r="M23" t="n">
-        <v>534.0847761085867</v>
+        <v>82.7919607802792</v>
       </c>
       <c r="N23" t="n">
-        <v>80.34503610263855</v>
+        <v>531.6378514309457</v>
       </c>
       <c r="O23" t="n">
-        <v>183.5902472520347</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
@@ -9717,25 +9717,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>60.64445572062077</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>275.2457034815723</v>
+        <v>192.0443884340515</v>
       </c>
       <c r="N24" t="n">
         <v>24.00592370515635</v>
       </c>
       <c r="O24" t="n">
-        <v>491.4894886098791</v>
+        <v>491.4894886098789</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>73.1414367083925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>73.01055823968255</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>60.64445572062077</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>388.3218894684173</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>129.1850645812506</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>73.0105582396825</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>55.01668702341119</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>87.4330333010662</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>73.0105582396825</v>
+        <v>73.01055823968255</v>
       </c>
       <c r="K33" t="n">
-        <v>60.64445572062067</v>
+        <v>60.64445572062077</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10440,13 +10440,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>368.1056055843948</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>129.1850645812496</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10592,7 +10592,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>584.3675935406823</v>
+        <v>326.2758591378803</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>319.8168566005937</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>116.439217477405</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,10 +10665,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>297.6456003205948</v>
+        <v>60.64445572062077</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>447.228289064508</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10677,13 +10677,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>40.19667328157156</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>73.1414367083925</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>96.65426516890462</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10829,19 +10829,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>449.4471936926688</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>396.5187716192358</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>116.4392174774052</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,13 +10899,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>73.0105582396825</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062077</v>
       </c>
       <c r="L39" t="n">
-        <v>55.01668702341171</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10914,7 +10914,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>277.197817881546</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>96.65426516890471</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>444.4381148932521</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5510017355793</v>
+        <v>433.6306018875667</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>116.439217477405</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,13 +11136,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>73.01055823968255</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>329.9823402783975</v>
+        <v>254.9757243716237</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11154,10 +11154,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>48.12815827408355</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>73.1414367083925</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>96.65426516890462</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>326.2758591378786</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11312,7 +11312,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>283.4179207749137</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11373,19 +11373,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>73.0105582396825</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>264.3869897890233</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>43.52671764789216</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>396.0283621237458</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.14143670839243</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,22 +23258,22 @@
         <v>260.8850331288904</v>
       </c>
       <c r="C11" t="n">
-        <v>202.2973185078729</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.6197917010056</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>280.7916077889828</v>
       </c>
       <c r="G11" t="n">
-        <v>282.1305160374087</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>194.1880049094285</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>204.3914103690695</v>
       </c>
       <c r="W11" t="n">
-        <v>229.6915098470265</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.3883658759718</v>
+        <v>33.51689549979555</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>239.8776541311002</v>
+        <v>239.8776541311</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>280.7916077889827</v>
       </c>
       <c r="G14" t="n">
-        <v>282.1305160374087</v>
+        <v>282.1305160374086</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>194.1880049094284</v>
       </c>
       <c r="I14" t="n">
-        <v>18.9132871365936</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3914103690696</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>229.6915098470265</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.3883658759719</v>
+        <v>238.4049605302504</v>
       </c>
     </row>
     <row r="15">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>971731.4162511175</v>
+        <v>971731.4162511171</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>971731.4162511175</v>
+        <v>971731.4162511174</v>
       </c>
     </row>
     <row r="7">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402085.2315413349</v>
+        <v>402085.2315413348</v>
       </c>
       <c r="C2" t="n">
-        <v>402085.2315413347</v>
+        <v>402085.2315413348</v>
       </c>
       <c r="D2" t="n">
-        <v>402085.2315413347</v>
+        <v>402085.2315413348</v>
       </c>
       <c r="E2" t="n">
-        <v>351375.5690128778</v>
+        <v>351375.5690128774</v>
       </c>
       <c r="F2" t="n">
-        <v>351375.5690128773</v>
+        <v>351375.5690128774</v>
       </c>
       <c r="G2" t="n">
-        <v>403002.6317594454</v>
+        <v>403002.6317594452</v>
       </c>
       <c r="H2" t="n">
         <v>403002.6317594454</v>
       </c>
       <c r="I2" t="n">
-        <v>403002.6317594456</v>
+        <v>403002.6317594454</v>
       </c>
       <c r="J2" t="n">
         <v>403002.6317594459</v>
       </c>
       <c r="K2" t="n">
-        <v>403002.6317594459</v>
+        <v>403002.6317594458</v>
       </c>
       <c r="L2" t="n">
-        <v>403002.6317594459</v>
+        <v>403002.6317594458</v>
       </c>
       <c r="M2" t="n">
-        <v>403002.6317594458</v>
+        <v>403002.6317594457</v>
       </c>
       <c r="N2" t="n">
         <v>403002.6317594458</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356901.2563746109</v>
+        <v>356901.2563746108</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.87140358320903e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>72236.38115909413</v>
+        <v>72236.38115909403</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>120312.4428466251</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>72236.38115909413</v>
+        <v>72236.38115909405</v>
       </c>
       <c r="M3" t="n">
         <v>103055.0537486386</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8860.779650763789</v>
+        <v>8860.779650763812</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,34 +26427,34 @@
         <v>292825.008417923</v>
       </c>
       <c r="F4" t="n">
-        <v>292825.008417923</v>
+        <v>292825.0084179231</v>
       </c>
       <c r="G4" t="n">
+        <v>348860.117600111</v>
+      </c>
+      <c r="H4" t="n">
         <v>348860.1176001111</v>
       </c>
-      <c r="H4" t="n">
-        <v>348860.117600111</v>
-      </c>
       <c r="I4" t="n">
-        <v>348860.1176001109</v>
+        <v>348860.1176001111</v>
       </c>
       <c r="J4" t="n">
         <v>338193.2769757742</v>
       </c>
       <c r="K4" t="n">
-        <v>338193.2769757741</v>
+        <v>338193.2769757742</v>
       </c>
       <c r="L4" t="n">
-        <v>338193.2769757741</v>
+        <v>338193.2769757743</v>
       </c>
       <c r="M4" t="n">
+        <v>339446.9901772323</v>
+      </c>
+      <c r="N4" t="n">
         <v>339446.9901772322</v>
       </c>
-      <c r="N4" t="n">
-        <v>339446.9901772323</v>
-      </c>
       <c r="O4" t="n">
-        <v>339446.9901772322</v>
+        <v>339446.9901772324</v>
       </c>
       <c r="P4" t="n">
         <v>339446.9901772323</v>
@@ -26476,13 +26476,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41524.90096894784</v>
+        <v>41524.9009689478</v>
       </c>
       <c r="F5" t="n">
         <v>41524.90096894783</v>
       </c>
       <c r="G5" t="n">
-        <v>49115.95137852769</v>
+        <v>49115.95137852768</v>
       </c>
       <c r="H5" t="n">
         <v>49115.95137852769</v>
@@ -26494,22 +26494,22 @@
         <v>65082.64625607467</v>
       </c>
       <c r="K5" t="n">
-        <v>65082.64625607468</v>
+        <v>65082.64625607467</v>
       </c>
       <c r="L5" t="n">
         <v>65082.64625607467</v>
       </c>
       <c r="M5" t="n">
+        <v>55600.50041746884</v>
+      </c>
+      <c r="N5" t="n">
+        <v>55600.50041746881</v>
+      </c>
+      <c r="O5" t="n">
         <v>55600.50041746882</v>
       </c>
-      <c r="N5" t="n">
-        <v>55600.50041746884</v>
-      </c>
-      <c r="O5" t="n">
-        <v>55600.50041746884</v>
-      </c>
       <c r="P5" t="n">
-        <v>55600.50041746884</v>
+        <v>55600.50041746882</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46761.5219047479</v>
+        <v>-46765.89047721521</v>
       </c>
       <c r="C6" t="n">
-        <v>-46761.52190474807</v>
+        <v>-46765.89047721521</v>
       </c>
       <c r="D6" t="n">
-        <v>-46761.52190474813</v>
+        <v>-46765.89047721521</v>
       </c>
       <c r="E6" t="n">
-        <v>-339875.596748604</v>
+        <v>-340121.4399045403</v>
       </c>
       <c r="F6" t="n">
-        <v>17025.65962600646</v>
+        <v>16779.81647007031</v>
       </c>
       <c r="G6" t="n">
-        <v>-67209.8183782875</v>
+        <v>-67209.81837828748</v>
       </c>
       <c r="H6" t="n">
-        <v>5026.562780806729</v>
+        <v>5026.562780806555</v>
       </c>
       <c r="I6" t="n">
-        <v>5026.562780806962</v>
+        <v>5026.562780806613</v>
       </c>
       <c r="J6" t="n">
-        <v>-120585.7343190281</v>
+        <v>-120585.734319028</v>
       </c>
       <c r="K6" t="n">
-        <v>-273.2914724028888</v>
+        <v>-273.2914724031725</v>
       </c>
       <c r="L6" t="n">
-        <v>-72509.67263149704</v>
+        <v>-72509.67263149722</v>
       </c>
       <c r="M6" t="n">
-        <v>-95099.91258389385</v>
+        <v>-95099.9125838941</v>
       </c>
       <c r="N6" t="n">
-        <v>7955.141164744564</v>
+        <v>7955.141164744702</v>
       </c>
       <c r="O6" t="n">
-        <v>-905.6384860191029</v>
+        <v>-905.6384860191465</v>
       </c>
       <c r="P6" t="n">
-        <v>7955.141164744622</v>
+        <v>7955.141164744695</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G2" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="H2" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="I2" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="J2" t="n">
         <v>101.3714510123223</v>
@@ -26719,10 +26719,10 @@
         <v>166.0499518471043</v>
       </c>
       <c r="N2" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="O2" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="P2" t="n">
         <v>166.0499518471044</v>
@@ -26762,22 +26762,22 @@
         <v>147.8469626879123</v>
       </c>
       <c r="K3" t="n">
-        <v>147.8469626879125</v>
+        <v>147.8469626879123</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8469626879125</v>
+        <v>147.8469626879123</v>
       </c>
       <c r="M3" t="n">
-        <v>147.8469626879125</v>
+        <v>147.8469626879123</v>
       </c>
       <c r="N3" t="n">
-        <v>147.8469626879125</v>
+        <v>147.8469626879123</v>
       </c>
       <c r="O3" t="n">
-        <v>147.8469626879125</v>
+        <v>147.8469626879123</v>
       </c>
       <c r="P3" t="n">
-        <v>147.8469626879125</v>
+        <v>147.8469626879123</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283067</v>
       </c>
       <c r="F4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="G4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="H4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="I4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="J4" t="n">
         <v>877.2596374066326</v>
@@ -26820,16 +26820,16 @@
         <v>877.2596374066326</v>
       </c>
       <c r="M4" t="n">
-        <v>631.871434688127</v>
+        <v>631.8714346881274</v>
       </c>
       <c r="N4" t="n">
-        <v>631.871434688127</v>
+        <v>631.8714346881269</v>
       </c>
       <c r="O4" t="n">
-        <v>631.871434688127</v>
+        <v>631.8714346881269</v>
       </c>
       <c r="P4" t="n">
-        <v>631.871434688127</v>
+        <v>631.8714346881269</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>90.29547644886767</v>
+        <v>90.29547644886753</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.07597456345471</v>
+        <v>11.07597456345462</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886766</v>
+        <v>90.29547644886756</v>
       </c>
       <c r="M2" t="n">
-        <v>64.67850083478197</v>
+        <v>64.67850083478207</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345474</v>
+        <v>11.07597456345476</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283067</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>425.9668220783252</v>
+        <v>425.9668220783254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>205.9046126098019</v>
+        <v>205.9046126098015</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886767</v>
+        <v>90.29547644886753</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345471</v>
+        <v>11.07597456345462</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283067</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>52.39645933782048</v>
       </c>
       <c r="S11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y11" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="12">
@@ -28169,22 +28169,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E12" t="n">
-        <v>127.1678035138603</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I12" t="n">
         <v>56.7494185219329</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>129.2180709939485</v>
+        <v>33.39550253258105</v>
       </c>
     </row>
     <row r="13">
@@ -28245,40 +28245,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J13" t="n">
-        <v>129.2180709939485</v>
+        <v>40.60739031761009</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>57.33576918556193</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28287,34 +28287,34 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>97.94315950317308</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="R13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="S13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>52.39645933782048</v>
       </c>
       <c r="S14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y14" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="15">
@@ -28406,16 +28406,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>129.2180709939485</v>
+        <v>0.04459898495815651</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E15" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G15" t="n">
         <v>127.1232045289026</v>
@@ -28454,19 +28454,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>129.2180709939485</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04459898495804282</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="C16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="D16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="E16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="F16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="G16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="I16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="J16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28521,37 +28521,37 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>97.94315950317096</v>
       </c>
       <c r="P16" t="n">
-        <v>97.94315950317356</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="R16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="S16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="T16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="U16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="V16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="W16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="X16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.2180709939485</v>
+        <v>129.2180709939486</v>
       </c>
     </row>
     <row r="17">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>73.33051188902229</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>31.44073652079159</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.364587523205</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28728,7 +28728,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>49.83392441282282</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
@@ -28743,7 +28743,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.60739031761009</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28773,13 +28773,13 @@
         <v>206.9263923888292</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="V19" t="n">
-        <v>219.5135474428162</v>
+        <v>78.25115744173451</v>
       </c>
       <c r="W19" t="n">
         <v>219.5135474428162</v>
@@ -28788,7 +28788,7 @@
         <v>219.5135474428162</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="C20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="D20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="E20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="F20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="G20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="H20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="I20" t="n">
         <v>148.1749764353493</v>
@@ -28852,22 +28852,22 @@
         <v>171.8127151144388</v>
       </c>
       <c r="T20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="U20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="V20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="W20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="X20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
     </row>
     <row r="21">
@@ -28886,16 +28886,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>127.1232045289026</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I21" t="n">
         <v>56.7494185219329</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.44188278383304</v>
       </c>
       <c r="S21" t="n">
-        <v>145.364587523205</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>219.5135474428161</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>62.74452513614384</v>
       </c>
       <c r="X21" t="n">
-        <v>6.481018151033112</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.60739031761009</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R22" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="U22" t="n">
-        <v>219.5135474428161</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>144.065125150638</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="W22" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="X22" t="n">
-        <v>219.5135474428161</v>
+        <v>100.2178133200413</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.5135474428161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="C23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="D23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="E23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="F23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="G23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="H23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="I23" t="n">
         <v>148.1749764353493</v>
@@ -29089,22 +29089,22 @@
         <v>171.8127151144388</v>
       </c>
       <c r="T23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="U23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="V23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="W23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="X23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="Y23" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>34.32321741744109</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>95.86716744632758</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.7494185219329</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>141.6452911057427</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29180,10 +29180,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29217,7 +29217,7 @@
         <v>134.7433458784038</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.60739031761009</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>136.0388409905457</v>
       </c>
       <c r="S25" t="n">
-        <v>206.9263923888292</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5135474428161</v>
+        <v>65.66400238774716</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="W25" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="X25" t="n">
-        <v>156.6522802046249</v>
+        <v>219.5135474428162</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.5135474428161</v>
+        <v>219.5135474428162</v>
       </c>
     </row>
     <row r="26">
@@ -29299,10 +29299,10 @@
         <v>101.3714510123223</v>
       </c>
       <c r="K26" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>56.34270386546996</v>
       </c>
       <c r="M26" t="n">
         <v>101.3714510123223</v>
@@ -29317,7 +29317,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.34270386547007</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="R26" t="n">
         <v>101.3714510123223</v>
@@ -29539,7 +29539,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="L29" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>101.3714510123223</v>
@@ -29548,16 +29548,16 @@
         <v>101.3714510123223</v>
       </c>
       <c r="O29" t="n">
-        <v>56.34270386546831</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Q29" t="n">
         <v>101.3714510123223</v>
       </c>
       <c r="R29" t="n">
-        <v>101.3714510123223</v>
+        <v>56.34270386546993</v>
       </c>
       <c r="S29" t="n">
         <v>101.3714510123223</v>
@@ -29691,7 +29691,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="J31" t="n">
-        <v>101.3714510123223</v>
+        <v>101.3714510123225</v>
       </c>
       <c r="K31" t="n">
         <v>101.3714510123223</v>
@@ -29709,7 +29709,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="P31" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Q31" t="n">
         <v>101.3714510123223</v>
@@ -29770,22 +29770,22 @@
         <v>101.3714510123223</v>
       </c>
       <c r="J32" t="n">
-        <v>56.34270386546824</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K32" t="n">
         <v>101.3714510123223</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>101.3714510123223</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>101.3714510123223</v>
       </c>
       <c r="O32" t="n">
-        <v>101.3714510123223</v>
+        <v>56.3427038654699</v>
       </c>
       <c r="P32" t="n">
         <v>101.3714510123223</v>
@@ -30004,7 +30004,7 @@
         <v>166.0499518471043</v>
       </c>
       <c r="I35" t="n">
-        <v>148.1749764353492</v>
+        <v>148.1749764353493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.39645933782041</v>
+        <v>52.39645933782048</v>
       </c>
       <c r="S35" t="n">
         <v>166.0499518471043</v>
@@ -30162,10 +30162,10 @@
         <v>155.4085199241127</v>
       </c>
       <c r="I37" t="n">
-        <v>134.7433458784037</v>
+        <v>134.7433458784038</v>
       </c>
       <c r="J37" t="n">
-        <v>40.60739031761005</v>
+        <v>40.60739031761009</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.665924689675659</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R37" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S37" t="n">
-        <v>166.0499518471043</v>
+        <v>153.8887999698075</v>
       </c>
       <c r="T37" t="n">
         <v>166.0499518471043</v>
@@ -30201,7 +30201,7 @@
         <v>166.0499518471043</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="W37" t="n">
         <v>166.0499518471043</v>
@@ -30210,7 +30210,7 @@
         <v>166.0499518471043</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.0499518471043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="C38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="D38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="E38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="F38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="G38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="H38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="I38" t="n">
-        <v>148.1749764353492</v>
+        <v>148.1749764353493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.39645933782041</v>
+        <v>52.39645933782048</v>
       </c>
       <c r="S38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="T38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="U38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="V38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="W38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="X38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="H40" t="n">
         <v>155.4085199241127</v>
       </c>
       <c r="I40" t="n">
-        <v>134.7433458784037</v>
+        <v>134.7433458784038</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>40.60739031761009</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.82707656697306</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R40" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S40" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="T40" t="n">
-        <v>28.4462384403119</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="U40" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="V40" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="W40" t="n">
-        <v>166.0499518471044</v>
+        <v>153.8887999698074</v>
       </c>
       <c r="X40" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
       <c r="Y40" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471043</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="C41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="D41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="E41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="F41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="G41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="H41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="I41" t="n">
-        <v>148.1749764353492</v>
+        <v>148.1749764353493</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.39645933782041</v>
+        <v>52.39645933782048</v>
       </c>
       <c r="S41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="T41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="U41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="V41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="W41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="X41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="C43" t="n">
-        <v>166.0499518471044</v>
+        <v>153.8887999698062</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,19 +30627,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="H43" t="n">
         <v>155.4085199241127</v>
       </c>
       <c r="I43" t="n">
-        <v>134.7433458784037</v>
+        <v>134.7433458784038</v>
       </c>
       <c r="J43" t="n">
-        <v>40.60739031761005</v>
+        <v>40.60739031761009</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.82707656697306</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R43" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S43" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="V43" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="W43" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="X43" t="n">
-        <v>166.0499518471044</v>
+        <v>166.0499518471045</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.7946965471823</v>
+        <v>166.0499518471045</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="I44" t="n">
-        <v>148.1749764353492</v>
+        <v>148.1749764353493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.39645933782041</v>
+        <v>52.39645933782048</v>
       </c>
       <c r="S44" t="n">
         <v>166.0499518471044</v>
@@ -30858,7 +30858,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30873,10 +30873,10 @@
         <v>155.4085199241127</v>
       </c>
       <c r="I46" t="n">
-        <v>134.7433458784037</v>
+        <v>134.7433458784038</v>
       </c>
       <c r="J46" t="n">
-        <v>40.60739031761005</v>
+        <v>40.60739031761009</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.82707656697306</v>
+        <v>15.8270765669731</v>
       </c>
       <c r="R46" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S46" t="n">
-        <v>139.3800223632165</v>
+        <v>153.8887999698068</v>
       </c>
       <c r="T46" t="n">
         <v>166.0499518471044</v>
@@ -30918,7 +30918,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="X46" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>166.0499518471044</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5943596489966328</v>
+        <v>0.5943596489966317</v>
       </c>
       <c r="H29" t="n">
-        <v>6.086985755286768</v>
+        <v>6.086985755286756</v>
       </c>
       <c r="I29" t="n">
-        <v>22.91405036794271</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J29" t="n">
-        <v>50.44553225902801</v>
+        <v>50.44553225902792</v>
       </c>
       <c r="K29" t="n">
-        <v>75.6047762010555</v>
+        <v>75.60477620105536</v>
       </c>
       <c r="L29" t="n">
-        <v>93.79441030903622</v>
+        <v>93.79441030903604</v>
       </c>
       <c r="M29" t="n">
-        <v>104.3643537168801</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N29" t="n">
-        <v>106.0530780695918</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O29" t="n">
-        <v>100.1429143098815</v>
+        <v>100.1429143098813</v>
       </c>
       <c r="P29" t="n">
-        <v>85.46966047527712</v>
+        <v>85.46966047527695</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.18415554558518</v>
+        <v>64.18415554558506</v>
       </c>
       <c r="R29" t="n">
-        <v>37.33544430128477</v>
+        <v>37.3354443012847</v>
       </c>
       <c r="S29" t="n">
-        <v>13.54397050151078</v>
+        <v>13.54397050151076</v>
       </c>
       <c r="T29" t="n">
-        <v>2.601809363482761</v>
+        <v>2.601809363482757</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04754877191973062</v>
+        <v>0.04754877191973053</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3180104480456987</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H30" t="n">
-        <v>3.071311432441354</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I30" t="n">
-        <v>10.94904393490673</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J30" t="n">
-        <v>30.04501342698419</v>
+        <v>30.04501342698413</v>
       </c>
       <c r="K30" t="n">
-        <v>51.35171344604601</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L30" t="n">
-        <v>69.04871592325577</v>
+        <v>69.04871592325563</v>
       </c>
       <c r="M30" t="n">
-        <v>80.57659466491232</v>
+        <v>80.57659466491216</v>
       </c>
       <c r="N30" t="n">
-        <v>82.70921736255214</v>
+        <v>82.70921736255197</v>
       </c>
       <c r="O30" t="n">
-        <v>75.66277532953954</v>
+        <v>75.6627753295394</v>
       </c>
       <c r="P30" t="n">
-        <v>60.72604775005978</v>
+        <v>60.72604775005966</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.59375473650007</v>
+        <v>40.59375473649999</v>
       </c>
       <c r="R30" t="n">
-        <v>19.74454343217067</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S30" t="n">
-        <v>5.906904594182162</v>
+        <v>5.906904594182151</v>
       </c>
       <c r="T30" t="n">
-        <v>1.281805270850864</v>
+        <v>1.281805270850861</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0209217400030065</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2666092769782029</v>
+        <v>0.2666092769782024</v>
       </c>
       <c r="H31" t="n">
-        <v>2.370398844406206</v>
+        <v>2.370398844406201</v>
       </c>
       <c r="I31" t="n">
-        <v>8.017668074944504</v>
+        <v>8.017668074944488</v>
       </c>
       <c r="J31" t="n">
-        <v>18.84927588235895</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K31" t="n">
-        <v>30.97515054346757</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L31" t="n">
-        <v>39.63752832455938</v>
+        <v>39.6375283245593</v>
       </c>
       <c r="M31" t="n">
-        <v>41.7922160266832</v>
+        <v>41.79221602668312</v>
       </c>
       <c r="N31" t="n">
-        <v>40.79849053976448</v>
+        <v>40.7984905397644</v>
       </c>
       <c r="O31" t="n">
-        <v>37.68400944051909</v>
+        <v>37.68400944051902</v>
       </c>
       <c r="P31" t="n">
-        <v>32.24518019016373</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.32489136587479</v>
+        <v>22.32489136587475</v>
       </c>
       <c r="R31" t="n">
-        <v>11.98772258121992</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S31" t="n">
-        <v>4.646272581520135</v>
+        <v>4.646272581520125</v>
       </c>
       <c r="T31" t="n">
-        <v>1.139148728906867</v>
+        <v>1.139148728906864</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01454232419881108</v>
+        <v>0.01454232419881106</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5943596489966328</v>
+        <v>0.5943596489966317</v>
       </c>
       <c r="H32" t="n">
-        <v>6.086985755286768</v>
+        <v>6.086985755286756</v>
       </c>
       <c r="I32" t="n">
-        <v>22.91405036794271</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J32" t="n">
-        <v>50.44553225902801</v>
+        <v>50.44553225902792</v>
       </c>
       <c r="K32" t="n">
-        <v>75.6047762010555</v>
+        <v>75.60477620105536</v>
       </c>
       <c r="L32" t="n">
-        <v>93.79441030903622</v>
+        <v>93.79441030903604</v>
       </c>
       <c r="M32" t="n">
-        <v>104.3643537168801</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N32" t="n">
-        <v>106.0530780695918</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O32" t="n">
-        <v>100.1429143098815</v>
+        <v>100.1429143098813</v>
       </c>
       <c r="P32" t="n">
-        <v>85.46966047527712</v>
+        <v>85.46966047527695</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.18415554558518</v>
+        <v>64.18415554558506</v>
       </c>
       <c r="R32" t="n">
-        <v>37.33544430128477</v>
+        <v>37.3354443012847</v>
       </c>
       <c r="S32" t="n">
-        <v>13.54397050151078</v>
+        <v>13.54397050151076</v>
       </c>
       <c r="T32" t="n">
-        <v>2.601809363482761</v>
+        <v>2.601809363482757</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04754877191973062</v>
+        <v>0.04754877191973053</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3180104480456987</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H33" t="n">
-        <v>3.071311432441354</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I33" t="n">
-        <v>10.94904393490673</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J33" t="n">
-        <v>30.04501342698419</v>
+        <v>30.04501342698413</v>
       </c>
       <c r="K33" t="n">
-        <v>51.35171344604601</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L33" t="n">
-        <v>69.04871592325577</v>
+        <v>69.04871592325563</v>
       </c>
       <c r="M33" t="n">
-        <v>80.57659466491232</v>
+        <v>80.57659466491216</v>
       </c>
       <c r="N33" t="n">
-        <v>82.70921736255214</v>
+        <v>82.70921736255197</v>
       </c>
       <c r="O33" t="n">
-        <v>75.66277532953954</v>
+        <v>75.6627753295394</v>
       </c>
       <c r="P33" t="n">
-        <v>60.72604775005978</v>
+        <v>60.72604775005966</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.59375473650007</v>
+        <v>40.59375473649999</v>
       </c>
       <c r="R33" t="n">
-        <v>19.74454343217067</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S33" t="n">
-        <v>5.906904594182162</v>
+        <v>5.906904594182151</v>
       </c>
       <c r="T33" t="n">
-        <v>1.281805270850864</v>
+        <v>1.281805270850861</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0209217400030065</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2666092769782029</v>
+        <v>0.2666092769782024</v>
       </c>
       <c r="H34" t="n">
-        <v>2.370398844406206</v>
+        <v>2.370398844406201</v>
       </c>
       <c r="I34" t="n">
-        <v>8.017668074944504</v>
+        <v>8.017668074944488</v>
       </c>
       <c r="J34" t="n">
-        <v>18.84927588235895</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K34" t="n">
-        <v>30.97515054346757</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L34" t="n">
-        <v>39.63752832455938</v>
+        <v>39.6375283245593</v>
       </c>
       <c r="M34" t="n">
-        <v>41.7922160266832</v>
+        <v>41.79221602668312</v>
       </c>
       <c r="N34" t="n">
-        <v>40.79849053976448</v>
+        <v>40.7984905397644</v>
       </c>
       <c r="O34" t="n">
-        <v>37.68400944051909</v>
+        <v>37.68400944051902</v>
       </c>
       <c r="P34" t="n">
-        <v>32.24518019016373</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.32489136587479</v>
+        <v>22.32489136587475</v>
       </c>
       <c r="R34" t="n">
-        <v>11.98772258121992</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S34" t="n">
-        <v>4.646272581520135</v>
+        <v>4.646272581520125</v>
       </c>
       <c r="T34" t="n">
-        <v>1.139148728906867</v>
+        <v>1.139148728906864</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01454232419881108</v>
+        <v>0.01454232419881106</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5943596489966328</v>
+        <v>0.5943596489966317</v>
       </c>
       <c r="H35" t="n">
-        <v>6.086985755286768</v>
+        <v>6.086985755286756</v>
       </c>
       <c r="I35" t="n">
-        <v>22.91405036794271</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J35" t="n">
-        <v>50.44553225902801</v>
+        <v>50.44553225902792</v>
       </c>
       <c r="K35" t="n">
-        <v>75.6047762010555</v>
+        <v>75.60477620105536</v>
       </c>
       <c r="L35" t="n">
-        <v>93.79441030903622</v>
+        <v>93.79441030903604</v>
       </c>
       <c r="M35" t="n">
-        <v>104.3643537168801</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N35" t="n">
-        <v>106.0530780695918</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O35" t="n">
-        <v>100.1429143098815</v>
+        <v>100.1429143098813</v>
       </c>
       <c r="P35" t="n">
-        <v>85.46966047527712</v>
+        <v>85.46966047527695</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.18415554558518</v>
+        <v>64.18415554558506</v>
       </c>
       <c r="R35" t="n">
-        <v>37.33544430128477</v>
+        <v>37.3354443012847</v>
       </c>
       <c r="S35" t="n">
-        <v>13.54397050151078</v>
+        <v>13.54397050151076</v>
       </c>
       <c r="T35" t="n">
-        <v>2.601809363482761</v>
+        <v>2.601809363482757</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04754877191973062</v>
+        <v>0.04754877191973053</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3180104480456987</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H36" t="n">
-        <v>3.071311432441354</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I36" t="n">
-        <v>10.94904393490673</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J36" t="n">
-        <v>30.04501342698419</v>
+        <v>30.04501342698413</v>
       </c>
       <c r="K36" t="n">
-        <v>51.35171344604601</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L36" t="n">
-        <v>69.04871592325577</v>
+        <v>69.04871592325563</v>
       </c>
       <c r="M36" t="n">
-        <v>80.57659466491232</v>
+        <v>80.57659466491216</v>
       </c>
       <c r="N36" t="n">
-        <v>82.70921736255214</v>
+        <v>82.70921736255197</v>
       </c>
       <c r="O36" t="n">
-        <v>75.66277532953954</v>
+        <v>75.6627753295394</v>
       </c>
       <c r="P36" t="n">
-        <v>60.72604775005978</v>
+        <v>60.72604775005966</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.59375473650007</v>
+        <v>40.59375473649999</v>
       </c>
       <c r="R36" t="n">
-        <v>19.74454343217067</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S36" t="n">
-        <v>5.906904594182162</v>
+        <v>5.906904594182151</v>
       </c>
       <c r="T36" t="n">
-        <v>1.281805270850864</v>
+        <v>1.281805270850861</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0209217400030065</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2666092769782029</v>
+        <v>0.2666092769782024</v>
       </c>
       <c r="H37" t="n">
-        <v>2.370398844406206</v>
+        <v>2.370398844406201</v>
       </c>
       <c r="I37" t="n">
-        <v>8.017668074944504</v>
+        <v>8.017668074944488</v>
       </c>
       <c r="J37" t="n">
-        <v>18.84927588235895</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K37" t="n">
-        <v>30.97515054346757</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L37" t="n">
-        <v>39.63752832455938</v>
+        <v>39.6375283245593</v>
       </c>
       <c r="M37" t="n">
-        <v>41.7922160266832</v>
+        <v>41.79221602668312</v>
       </c>
       <c r="N37" t="n">
-        <v>40.79849053976448</v>
+        <v>40.7984905397644</v>
       </c>
       <c r="O37" t="n">
-        <v>37.68400944051909</v>
+        <v>37.68400944051902</v>
       </c>
       <c r="P37" t="n">
-        <v>32.24518019016373</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.32489136587479</v>
+        <v>22.32489136587475</v>
       </c>
       <c r="R37" t="n">
-        <v>11.98772258121992</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S37" t="n">
-        <v>4.646272581520135</v>
+        <v>4.646272581520125</v>
       </c>
       <c r="T37" t="n">
-        <v>1.139148728906867</v>
+        <v>1.139148728906864</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01454232419881108</v>
+        <v>0.01454232419881106</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5943596489966328</v>
+        <v>0.5943596489966317</v>
       </c>
       <c r="H38" t="n">
-        <v>6.086985755286768</v>
+        <v>6.086985755286756</v>
       </c>
       <c r="I38" t="n">
-        <v>22.91405036794271</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J38" t="n">
-        <v>50.44553225902801</v>
+        <v>50.44553225902792</v>
       </c>
       <c r="K38" t="n">
-        <v>75.6047762010555</v>
+        <v>75.60477620105536</v>
       </c>
       <c r="L38" t="n">
-        <v>93.79441030903622</v>
+        <v>93.79441030903604</v>
       </c>
       <c r="M38" t="n">
-        <v>104.3643537168801</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N38" t="n">
-        <v>106.0530780695918</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O38" t="n">
-        <v>100.1429143098815</v>
+        <v>100.1429143098813</v>
       </c>
       <c r="P38" t="n">
-        <v>85.46966047527712</v>
+        <v>85.46966047527695</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.18415554558518</v>
+        <v>64.18415554558506</v>
       </c>
       <c r="R38" t="n">
-        <v>37.33544430128477</v>
+        <v>37.3354443012847</v>
       </c>
       <c r="S38" t="n">
-        <v>13.54397050151078</v>
+        <v>13.54397050151076</v>
       </c>
       <c r="T38" t="n">
-        <v>2.601809363482761</v>
+        <v>2.601809363482757</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04754877191973062</v>
+        <v>0.04754877191973053</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3180104480456987</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H39" t="n">
-        <v>3.071311432441354</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I39" t="n">
-        <v>10.94904393490673</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J39" t="n">
-        <v>30.04501342698419</v>
+        <v>30.04501342698413</v>
       </c>
       <c r="K39" t="n">
-        <v>51.35171344604601</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L39" t="n">
-        <v>69.04871592325577</v>
+        <v>69.04871592325563</v>
       </c>
       <c r="M39" t="n">
-        <v>80.57659466491232</v>
+        <v>80.57659466491216</v>
       </c>
       <c r="N39" t="n">
-        <v>82.70921736255214</v>
+        <v>82.70921736255197</v>
       </c>
       <c r="O39" t="n">
-        <v>75.66277532953954</v>
+        <v>75.6627753295394</v>
       </c>
       <c r="P39" t="n">
-        <v>60.72604775005978</v>
+        <v>60.72604775005966</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.59375473650007</v>
+        <v>40.59375473649999</v>
       </c>
       <c r="R39" t="n">
-        <v>19.74454343217067</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S39" t="n">
-        <v>5.906904594182162</v>
+        <v>5.906904594182151</v>
       </c>
       <c r="T39" t="n">
-        <v>1.281805270850864</v>
+        <v>1.281805270850861</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0209217400030065</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2666092769782029</v>
+        <v>0.2666092769782024</v>
       </c>
       <c r="H40" t="n">
-        <v>2.370398844406206</v>
+        <v>2.370398844406201</v>
       </c>
       <c r="I40" t="n">
-        <v>8.017668074944504</v>
+        <v>8.017668074944488</v>
       </c>
       <c r="J40" t="n">
-        <v>18.84927588235895</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K40" t="n">
-        <v>30.97515054346757</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L40" t="n">
-        <v>39.63752832455938</v>
+        <v>39.6375283245593</v>
       </c>
       <c r="M40" t="n">
-        <v>41.7922160266832</v>
+        <v>41.79221602668312</v>
       </c>
       <c r="N40" t="n">
-        <v>40.79849053976448</v>
+        <v>40.7984905397644</v>
       </c>
       <c r="O40" t="n">
-        <v>37.68400944051909</v>
+        <v>37.68400944051902</v>
       </c>
       <c r="P40" t="n">
-        <v>32.24518019016373</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.32489136587479</v>
+        <v>22.32489136587475</v>
       </c>
       <c r="R40" t="n">
-        <v>11.98772258121992</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S40" t="n">
-        <v>4.646272581520135</v>
+        <v>4.646272581520125</v>
       </c>
       <c r="T40" t="n">
-        <v>1.139148728906867</v>
+        <v>1.139148728906864</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01454232419881108</v>
+        <v>0.01454232419881106</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5943596489966328</v>
+        <v>0.5943596489966317</v>
       </c>
       <c r="H41" t="n">
-        <v>6.086985755286768</v>
+        <v>6.086985755286756</v>
       </c>
       <c r="I41" t="n">
-        <v>22.91405036794271</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J41" t="n">
-        <v>50.44553225902801</v>
+        <v>50.44553225902792</v>
       </c>
       <c r="K41" t="n">
-        <v>75.6047762010555</v>
+        <v>75.60477620105536</v>
       </c>
       <c r="L41" t="n">
-        <v>93.79441030903622</v>
+        <v>93.79441030903604</v>
       </c>
       <c r="M41" t="n">
-        <v>104.3643537168801</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N41" t="n">
-        <v>106.0530780695918</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O41" t="n">
-        <v>100.1429143098815</v>
+        <v>100.1429143098813</v>
       </c>
       <c r="P41" t="n">
-        <v>85.46966047527712</v>
+        <v>85.46966047527695</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.18415554558518</v>
+        <v>64.18415554558506</v>
       </c>
       <c r="R41" t="n">
-        <v>37.33544430128477</v>
+        <v>37.3354443012847</v>
       </c>
       <c r="S41" t="n">
-        <v>13.54397050151078</v>
+        <v>13.54397050151076</v>
       </c>
       <c r="T41" t="n">
-        <v>2.601809363482761</v>
+        <v>2.601809363482757</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04754877191973062</v>
+        <v>0.04754877191973053</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3180104480456987</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H42" t="n">
-        <v>3.071311432441354</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I42" t="n">
-        <v>10.94904393490673</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J42" t="n">
-        <v>30.04501342698419</v>
+        <v>30.04501342698413</v>
       </c>
       <c r="K42" t="n">
-        <v>51.35171344604601</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L42" t="n">
-        <v>69.04871592325577</v>
+        <v>69.04871592325563</v>
       </c>
       <c r="M42" t="n">
-        <v>80.57659466491232</v>
+        <v>80.57659466491216</v>
       </c>
       <c r="N42" t="n">
-        <v>82.70921736255214</v>
+        <v>82.70921736255197</v>
       </c>
       <c r="O42" t="n">
-        <v>75.66277532953954</v>
+        <v>75.6627753295394</v>
       </c>
       <c r="P42" t="n">
-        <v>60.72604775005978</v>
+        <v>60.72604775005966</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.59375473650007</v>
+        <v>40.59375473649999</v>
       </c>
       <c r="R42" t="n">
-        <v>19.74454343217067</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S42" t="n">
-        <v>5.906904594182162</v>
+        <v>5.906904594182151</v>
       </c>
       <c r="T42" t="n">
-        <v>1.281805270850864</v>
+        <v>1.281805270850861</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0209217400030065</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2666092769782029</v>
+        <v>0.2666092769782024</v>
       </c>
       <c r="H43" t="n">
-        <v>2.370398844406206</v>
+        <v>2.370398844406201</v>
       </c>
       <c r="I43" t="n">
-        <v>8.017668074944504</v>
+        <v>8.017668074944488</v>
       </c>
       <c r="J43" t="n">
-        <v>18.84927588235895</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K43" t="n">
-        <v>30.97515054346757</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L43" t="n">
-        <v>39.63752832455938</v>
+        <v>39.6375283245593</v>
       </c>
       <c r="M43" t="n">
-        <v>41.7922160266832</v>
+        <v>41.79221602668312</v>
       </c>
       <c r="N43" t="n">
-        <v>40.79849053976448</v>
+        <v>40.7984905397644</v>
       </c>
       <c r="O43" t="n">
-        <v>37.68400944051909</v>
+        <v>37.68400944051902</v>
       </c>
       <c r="P43" t="n">
-        <v>32.24518019016373</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.32489136587479</v>
+        <v>22.32489136587475</v>
       </c>
       <c r="R43" t="n">
-        <v>11.98772258121992</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S43" t="n">
-        <v>4.646272581520135</v>
+        <v>4.646272581520125</v>
       </c>
       <c r="T43" t="n">
-        <v>1.139148728906867</v>
+        <v>1.139148728906864</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01454232419881108</v>
+        <v>0.01454232419881106</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5943596489966328</v>
+        <v>0.5943596489966317</v>
       </c>
       <c r="H44" t="n">
-        <v>6.086985755286768</v>
+        <v>6.086985755286756</v>
       </c>
       <c r="I44" t="n">
-        <v>22.91405036794271</v>
+        <v>22.91405036794267</v>
       </c>
       <c r="J44" t="n">
-        <v>50.44553225902801</v>
+        <v>50.44553225902792</v>
       </c>
       <c r="K44" t="n">
-        <v>75.6047762010555</v>
+        <v>75.60477620105536</v>
       </c>
       <c r="L44" t="n">
-        <v>93.79441030903622</v>
+        <v>93.79441030903604</v>
       </c>
       <c r="M44" t="n">
-        <v>104.3643537168801</v>
+        <v>104.3643537168799</v>
       </c>
       <c r="N44" t="n">
-        <v>106.0530780695918</v>
+        <v>106.0530780695916</v>
       </c>
       <c r="O44" t="n">
-        <v>100.1429143098815</v>
+        <v>100.1429143098813</v>
       </c>
       <c r="P44" t="n">
-        <v>85.46966047527712</v>
+        <v>85.46966047527695</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.18415554558518</v>
+        <v>64.18415554558506</v>
       </c>
       <c r="R44" t="n">
-        <v>37.33544430128477</v>
+        <v>37.3354443012847</v>
       </c>
       <c r="S44" t="n">
-        <v>13.54397050151078</v>
+        <v>13.54397050151076</v>
       </c>
       <c r="T44" t="n">
-        <v>2.601809363482761</v>
+        <v>2.601809363482757</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04754877191973062</v>
+        <v>0.04754877191973053</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3180104480456987</v>
+        <v>0.3180104480456981</v>
       </c>
       <c r="H45" t="n">
-        <v>3.071311432441354</v>
+        <v>3.071311432441348</v>
       </c>
       <c r="I45" t="n">
-        <v>10.94904393490673</v>
+        <v>10.94904393490671</v>
       </c>
       <c r="J45" t="n">
-        <v>30.04501342698419</v>
+        <v>30.04501342698413</v>
       </c>
       <c r="K45" t="n">
-        <v>51.35171344604601</v>
+        <v>51.35171344604591</v>
       </c>
       <c r="L45" t="n">
-        <v>69.04871592325577</v>
+        <v>69.04871592325563</v>
       </c>
       <c r="M45" t="n">
-        <v>80.57659466491232</v>
+        <v>80.57659466491216</v>
       </c>
       <c r="N45" t="n">
-        <v>82.70921736255214</v>
+        <v>82.70921736255197</v>
       </c>
       <c r="O45" t="n">
-        <v>75.66277532953954</v>
+        <v>75.6627753295394</v>
       </c>
       <c r="P45" t="n">
-        <v>60.72604775005978</v>
+        <v>60.72604775005966</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.59375473650007</v>
+        <v>40.59375473649999</v>
       </c>
       <c r="R45" t="n">
-        <v>19.74454343217067</v>
+        <v>19.74454343217063</v>
       </c>
       <c r="S45" t="n">
-        <v>5.906904594182162</v>
+        <v>5.906904594182151</v>
       </c>
       <c r="T45" t="n">
-        <v>1.281805270850864</v>
+        <v>1.281805270850861</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0209217400030065</v>
+        <v>0.02092174000300646</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2666092769782029</v>
+        <v>0.2666092769782024</v>
       </c>
       <c r="H46" t="n">
-        <v>2.370398844406206</v>
+        <v>2.370398844406201</v>
       </c>
       <c r="I46" t="n">
-        <v>8.017668074944504</v>
+        <v>8.017668074944488</v>
       </c>
       <c r="J46" t="n">
-        <v>18.84927588235895</v>
+        <v>18.84927588235891</v>
       </c>
       <c r="K46" t="n">
-        <v>30.97515054346757</v>
+        <v>30.97515054346751</v>
       </c>
       <c r="L46" t="n">
-        <v>39.63752832455938</v>
+        <v>39.6375283245593</v>
       </c>
       <c r="M46" t="n">
-        <v>41.7922160266832</v>
+        <v>41.79221602668312</v>
       </c>
       <c r="N46" t="n">
-        <v>40.79849053976448</v>
+        <v>40.7984905397644</v>
       </c>
       <c r="O46" t="n">
-        <v>37.68400944051909</v>
+        <v>37.68400944051902</v>
       </c>
       <c r="P46" t="n">
-        <v>32.24518019016373</v>
+        <v>32.24518019016367</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.32489136587479</v>
+        <v>22.32489136587475</v>
       </c>
       <c r="R46" t="n">
-        <v>11.98772258121992</v>
+        <v>11.9877225812199</v>
       </c>
       <c r="S46" t="n">
-        <v>4.646272581520135</v>
+        <v>4.646272581520125</v>
       </c>
       <c r="T46" t="n">
-        <v>1.139148728906867</v>
+        <v>1.139148728906864</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01454232419881108</v>
+        <v>0.01454232419881106</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6217819131883285</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M11" t="n">
-        <v>451.2928153283074</v>
+        <v>4.48118365751176</v>
       </c>
       <c r="N11" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283067</v>
       </c>
       <c r="O11" t="n">
         <v>408.2283531713297</v>
       </c>
       <c r="P11" t="n">
-        <v>315.9311720470479</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>159.5702703804709</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>438.5657312466047</v>
+        <v>227.6113115031406</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>331.2461832876934</v>
+        <v>451.2928153283067</v>
       </c>
       <c r="O12" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283067</v>
       </c>
       <c r="P12" t="n">
         <v>365.8734409578346</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.61068067633843</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>64.9187745279558</v>
       </c>
       <c r="L13" t="n">
-        <v>141.2608408500739</v>
+        <v>198.5966100356359</v>
       </c>
       <c r="M13" t="n">
-        <v>160.9775757515334</v>
+        <v>290.1956467454819</v>
       </c>
       <c r="N13" t="n">
         <v>160.4170175595627</v>
@@ -35583,10 +35583,10 @@
         <v>137.142238224044</v>
       </c>
       <c r="P13" t="n">
-        <v>193.7928687116577</v>
+        <v>95.84970920848467</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.3909944269754</v>
+        <v>113.3909944269755</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>123.1713345547912</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L14" t="n">
         <v>445.193777061507</v>
       </c>
       <c r="M14" t="n">
-        <v>334.8423009535049</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>133.1773006074749</v>
       </c>
       <c r="O14" t="n">
-        <v>408.2283531713297</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>315.9311720470479</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.5702703804709</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L15" t="n">
         <v>438.5657312466047</v>
       </c>
       <c r="M15" t="n">
-        <v>451.2928153283074</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>445.785846265432</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="O15" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>162.6254938697</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.6106806763384</v>
+        <v>88.61068067633855</v>
       </c>
       <c r="K16" t="n">
         <v>64.9187745279558</v>
@@ -35817,13 +35817,13 @@
         <v>160.4170175595627</v>
       </c>
       <c r="O16" t="n">
-        <v>137.142238224044</v>
+        <v>235.0853977272149</v>
       </c>
       <c r="P16" t="n">
-        <v>193.7928687116582</v>
+        <v>95.84970920848467</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3909944269754</v>
+        <v>113.3909944269755</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>123.1713345547912</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L17" t="n">
-        <v>445.193777061507</v>
+        <v>326.5036261642289</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="N17" t="n">
-        <v>334.8423009535049</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>408.2283531713297</v>
       </c>
       <c r="P17" t="n">
-        <v>315.9311720470479</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>159.5702703804709</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>48.08583089196139</v>
       </c>
       <c r="K18" t="n">
         <v>283.1603523957314</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>438.5657312466047</v>
       </c>
       <c r="M18" t="n">
-        <v>35.35874681025938</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="N18" t="n">
-        <v>451.2928153283074</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>451.2928153283074</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>365.8734409578346</v>
@@ -36121,25 +36121,25 @@
         <v>123.1713345547912</v>
       </c>
       <c r="K20" t="n">
-        <v>318.1708085695228</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>445.193777061507</v>
       </c>
       <c r="M20" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="N20" t="n">
-        <v>40.88011948319348</v>
+        <v>291.7778387965264</v>
       </c>
       <c r="O20" t="n">
-        <v>408.2283531713297</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L21" t="n">
-        <v>438.5657312466047</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>451.2928153283074</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>354.878058562583</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="O21" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>144.4099964556214</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>318.1708085695228</v>
       </c>
       <c r="L23" t="n">
-        <v>445.193777061507</v>
+        <v>133.7437886719723</v>
       </c>
       <c r="M23" t="n">
-        <v>451.2928153283074</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="O23" t="n">
-        <v>96.77836478179557</v>
+        <v>408.2283531713297</v>
       </c>
       <c r="P23" t="n">
         <v>315.9311720470479</v>
@@ -36437,25 +36437,25 @@
         <v>90.90778770284894</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L24" t="n">
         <v>438.5657312466047</v>
       </c>
       <c r="M24" t="n">
-        <v>240.3383955848446</v>
+        <v>157.1370805373238</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283072</v>
       </c>
       <c r="P24" t="n">
         <v>365.8734409578346</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.9590373482113</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>224.5427855671135</v>
       </c>
       <c r="K26" t="n">
-        <v>419.5422595818451</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L26" t="n">
-        <v>445.193777061507</v>
+        <v>501.5364809269769</v>
       </c>
       <c r="M26" t="n">
         <v>602.9470837727254</v>
@@ -36613,7 +36613,7 @@
         <v>417.3026230593702</v>
       </c>
       <c r="Q26" t="n">
-        <v>215.912974245941</v>
+        <v>260.9417213927932</v>
       </c>
       <c r="R26" t="n">
         <v>48.97499167450182</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>570.5092749782722</v>
       </c>
       <c r="N27" t="n">
-        <v>599.1391629414632</v>
+        <v>364.3159657632609</v>
       </c>
       <c r="O27" t="n">
         <v>471.8243417781766</v>
@@ -36692,7 +36692,7 @@
         <v>365.8734409578346</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.04362787285807</v>
+        <v>199.9590373482113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>224.5427855671136</v>
+        <v>224.5427855671135</v>
       </c>
       <c r="K29" t="n">
-        <v>419.5422595818452</v>
+        <v>419.5422595818451</v>
       </c>
       <c r="L29" t="n">
-        <v>546.5652280738295</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M29" t="n">
-        <v>602.9470837727256</v>
+        <v>602.9470837727254</v>
       </c>
       <c r="N29" t="n">
-        <v>589.5774166452634</v>
+        <v>589.5774166452632</v>
       </c>
       <c r="O29" t="n">
-        <v>464.5710570367983</v>
+        <v>509.5998041836521</v>
       </c>
       <c r="P29" t="n">
-        <v>315.9311720470481</v>
+        <v>417.3026230593702</v>
       </c>
       <c r="Q29" t="n">
-        <v>260.9417213927934</v>
+        <v>260.9417213927932</v>
       </c>
       <c r="R29" t="n">
-        <v>48.9749916745019</v>
+        <v>3.946244527649451</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K30" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L30" t="n">
-        <v>11.48996937551918</v>
+        <v>438.5657312466047</v>
       </c>
       <c r="M30" t="n">
-        <v>570.5092749782724</v>
+        <v>52.52572540433847</v>
       </c>
       <c r="N30" t="n">
-        <v>599.1391629414634</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O30" t="n">
-        <v>471.8243417781768</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P30" t="n">
-        <v>365.8734409578348</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q30" t="n">
-        <v>199.9590373482114</v>
+        <v>199.9590373482113</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.76406069471226</v>
+        <v>60.76406069471238</v>
       </c>
       <c r="K31" t="n">
-        <v>166.2902255402782</v>
+        <v>166.2902255402781</v>
       </c>
       <c r="L31" t="n">
-        <v>242.6322918623963</v>
+        <v>242.6322918623962</v>
       </c>
       <c r="M31" t="n">
-        <v>262.3490267638558</v>
+        <v>262.3490267638557</v>
       </c>
       <c r="N31" t="n">
         <v>261.7884685718851</v>
       </c>
       <c r="O31" t="n">
-        <v>238.5136892363664</v>
+        <v>238.5136892363663</v>
       </c>
       <c r="P31" t="n">
         <v>197.221160220807</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.54437444534925</v>
+        <v>85.54437444534921</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>179.5140384202595</v>
+        <v>224.5427855671135</v>
       </c>
       <c r="K32" t="n">
-        <v>419.5422595818452</v>
+        <v>419.5422595818451</v>
       </c>
       <c r="L32" t="n">
-        <v>546.5652280738295</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M32" t="n">
-        <v>501.5756327604033</v>
+        <v>602.9470837727254</v>
       </c>
       <c r="N32" t="n">
-        <v>589.5774166452634</v>
+        <v>589.5774166452632</v>
       </c>
       <c r="O32" t="n">
-        <v>509.5998041836522</v>
+        <v>464.5710570367996</v>
       </c>
       <c r="P32" t="n">
-        <v>417.3026230593704</v>
+        <v>417.3026230593702</v>
       </c>
       <c r="Q32" t="n">
-        <v>260.9417213927933</v>
+        <v>260.9417213927932</v>
       </c>
       <c r="R32" t="n">
-        <v>48.97499167450189</v>
+        <v>48.97499167450186</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>438.5657312466049</v>
+        <v>438.5657312466047</v>
       </c>
       <c r="M33" t="n">
-        <v>570.5092749782724</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N33" t="n">
-        <v>599.1391629414634</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O33" t="n">
-        <v>471.8243417781768</v>
+        <v>327.9089323028231</v>
       </c>
       <c r="P33" t="n">
-        <v>365.8734409578348</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.04362787285716</v>
+        <v>199.9590373482113</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.76406069471224</v>
+        <v>60.76406069471225</v>
       </c>
       <c r="K34" t="n">
-        <v>166.2902255402782</v>
+        <v>166.2902255402781</v>
       </c>
       <c r="L34" t="n">
         <v>242.6322918623963</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>123.1713345547913</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K35" t="n">
-        <v>318.1708085695229</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L35" t="n">
-        <v>445.1937770615071</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M35" t="n">
-        <v>501.5756327604033</v>
+        <v>243.4838983576011</v>
       </c>
       <c r="N35" t="n">
-        <v>488.205965632941</v>
+        <v>488.2059656329408</v>
       </c>
       <c r="O35" t="n">
-        <v>408.22835317133</v>
+        <v>408.2283531713297</v>
       </c>
       <c r="P35" t="n">
-        <v>217.4097080247144</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>90.90778770284899</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K36" t="n">
-        <v>237.0011445999741</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>438.5657312466049</v>
+        <v>403.7015714166159</v>
       </c>
       <c r="M36" t="n">
-        <v>570.5092749782724</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N36" t="n">
-        <v>599.1391629414634</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P36" t="n">
-        <v>365.8734409578348</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.9590373482114</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>64.91877452795586</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L37" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M37" t="n">
         <v>160.9775757515334</v>
       </c>
       <c r="N37" t="n">
-        <v>160.4170175595628</v>
+        <v>160.4170175595627</v>
       </c>
       <c r="O37" t="n">
         <v>137.142238224044</v>
       </c>
       <c r="P37" t="n">
-        <v>95.84970920848474</v>
+        <v>95.84970920848467</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K38" t="n">
-        <v>318.1708085695229</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L38" t="n">
-        <v>445.1937770615071</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M38" t="n">
-        <v>366.6552329123898</v>
+        <v>501.5756327604031</v>
       </c>
       <c r="N38" t="n">
-        <v>488.205965632941</v>
+        <v>488.2059656329408</v>
       </c>
       <c r="O38" t="n">
-        <v>408.22835317133</v>
+        <v>309.7068891489967</v>
       </c>
       <c r="P38" t="n">
-        <v>315.9311720470481</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.570270380471</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K39" t="n">
-        <v>283.1603523957315</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>11.4899693755197</v>
+        <v>438.5657312466047</v>
       </c>
       <c r="M39" t="n">
-        <v>570.5092749782724</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N39" t="n">
-        <v>599.1391629414634</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O39" t="n">
-        <v>471.8243417781768</v>
+        <v>237.0011445999743</v>
       </c>
       <c r="P39" t="n">
-        <v>365.8734409578348</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.9590373482114</v>
+        <v>199.9590373482113</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>64.91877452795586</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L40" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M40" t="n">
         <v>160.9775757515334</v>
       </c>
       <c r="N40" t="n">
-        <v>160.4170175595628</v>
+        <v>160.4170175595627</v>
       </c>
       <c r="O40" t="n">
         <v>137.142238224044</v>
       </c>
       <c r="P40" t="n">
-        <v>95.84970920848474</v>
+        <v>95.84970920848467</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>123.1713345547913</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>318.1708085695229</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L41" t="n">
-        <v>346.6723130391737</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M41" t="n">
-        <v>501.5756327604033</v>
+        <v>501.5756327604031</v>
       </c>
       <c r="N41" t="n">
-        <v>488.205965632941</v>
+        <v>353.2855657849282</v>
       </c>
       <c r="O41" t="n">
-        <v>408.22835317133</v>
+        <v>408.2283531713297</v>
       </c>
       <c r="P41" t="n">
-        <v>315.9311720470481</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>90.90778770284899</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>283.1603523957315</v>
+        <v>283.1603523957314</v>
       </c>
       <c r="L42" t="n">
-        <v>286.4556226305054</v>
+        <v>211.4490067237316</v>
       </c>
       <c r="M42" t="n">
-        <v>570.5092749782724</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N42" t="n">
-        <v>599.1391629414634</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O42" t="n">
-        <v>471.8243417781768</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.9590373482114</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>64.91877452795586</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L43" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M43" t="n">
         <v>160.9775757515334</v>
       </c>
       <c r="N43" t="n">
-        <v>160.4170175595628</v>
+        <v>160.4170175595627</v>
       </c>
       <c r="O43" t="n">
         <v>137.142238224044</v>
       </c>
       <c r="P43" t="n">
-        <v>95.84970920848474</v>
+        <v>95.84970920848467</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>123.1713345547912</v>
       </c>
       <c r="K44" t="n">
-        <v>318.1708085695229</v>
+        <v>318.1708085695228</v>
       </c>
       <c r="L44" t="n">
-        <v>445.1937770615071</v>
+        <v>445.193777061507</v>
       </c>
       <c r="M44" t="n">
-        <v>501.5756327604033</v>
+        <v>243.4838983575994</v>
       </c>
       <c r="N44" t="n">
-        <v>488.205965632941</v>
+        <v>488.2059656329408</v>
       </c>
       <c r="O44" t="n">
-        <v>408.22835317133</v>
+        <v>408.2283531713297</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0107721990344</v>
+        <v>315.9311720470479</v>
       </c>
       <c r="Q44" t="n">
-        <v>159.570270380471</v>
+        <v>159.5702703804709</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>90.90778770284894</v>
       </c>
       <c r="K45" t="n">
-        <v>283.1603523957315</v>
+        <v>203.7425340684026</v>
       </c>
       <c r="L45" t="n">
-        <v>438.5657312466049</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>570.5092749782724</v>
+        <v>570.5092749782722</v>
       </c>
       <c r="N45" t="n">
-        <v>372.0224384185896</v>
+        <v>599.1391629414632</v>
       </c>
       <c r="O45" t="n">
-        <v>471.8243417781768</v>
+        <v>471.8243417781766</v>
       </c>
       <c r="P45" t="n">
-        <v>365.8734409578348</v>
+        <v>365.8734409578346</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>199.9590373482113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>64.91877452795586</v>
+        <v>64.9187745279558</v>
       </c>
       <c r="L46" t="n">
-        <v>141.260840850074</v>
+        <v>141.2608408500739</v>
       </c>
       <c r="M46" t="n">
         <v>160.9775757515334</v>
       </c>
       <c r="N46" t="n">
-        <v>160.4170175595628</v>
+        <v>160.4170175595627</v>
       </c>
       <c r="O46" t="n">
         <v>137.142238224044</v>
       </c>
       <c r="P46" t="n">
-        <v>95.84970920848474</v>
+        <v>95.84970920848467</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
